--- a/jyx2/Assets/Mods/JYX2/Configs/战斗.xlsx
+++ b/jyx2/Assets/Mods/JYX2/Configs/战斗.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="244">
   <si>
     <t>编号</t>
   </si>
@@ -761,6 +761,214 @@
   </si>
   <si>
     <t>0,26</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jyx2Battle_21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jyx2Battle_21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jyx2Battle_21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jyx2Battle_11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jyx2Battle_25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jyx2Battle_4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jyx2Battle_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jyx2Battle_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jyx2Battle_21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jyx2Battle_21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jyx2Battle_21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jyx2Battle_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jyx2Battle_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jyx2Battle_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jyx2Battle_16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jyx2Battle_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jyx2Battle_5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jyx2Battle_5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jyx2Battle_5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jyx2Battle_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jyx2Battle_24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jyx2Battle_24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jyx2Battle_24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jyx2Battle_13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jyx2Battle_13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jyx2Battle_24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jyx2Battle_4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jyx2Battle_24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jyx2Battle_8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jyx2Battle_8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jyx2Battle_17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jyx2Battle_11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jyx2Battle_19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jyx2Battle_4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jyx2Battle_4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jyx2Battle_19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jyx2Battle_5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jyx2Battle_20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jyx2Battle_20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jyx2Battle_14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jyx2Battle_10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jyx2Battle_17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jyx2Battle_17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jyx2Battle_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jyx2Battle_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jyx2Battle_23</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jyx2Battle_23</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jyx2Battle_22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jyx2Battle_7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jyx2Battle_6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jyx2Battle_6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jyx2Battle_6</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1096,11 +1304,12 @@
   <dimension ref="A1:H143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="6" max="6" width="9.140625" customWidth="1"/>
     <col min="8" max="8" width="91" style="2" customWidth="1"/>
   </cols>
@@ -1169,8 +1378,8 @@
       <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="C4">
-        <v>0</v>
+      <c r="C4" t="s">
+        <v>198</v>
       </c>
       <c r="D4">
         <v>150</v>
@@ -1195,8 +1404,8 @@
       <c r="B5" t="s">
         <v>26</v>
       </c>
-      <c r="C5">
-        <v>1</v>
+      <c r="C5" t="s">
+        <v>199</v>
       </c>
       <c r="D5">
         <v>200</v>
@@ -1221,8 +1430,8 @@
       <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="C6">
-        <v>1</v>
+      <c r="C6" t="s">
+        <v>203</v>
       </c>
       <c r="D6">
         <v>100</v>
@@ -1247,8 +1456,8 @@
       <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="C7">
-        <v>2</v>
+      <c r="C7" t="s">
+        <v>204</v>
       </c>
       <c r="D7">
         <v>100</v>
@@ -1273,8 +1482,8 @@
       <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="C8">
-        <v>2</v>
+      <c r="C8" t="s">
+        <v>205</v>
       </c>
       <c r="D8">
         <v>500</v>
@@ -1299,8 +1508,8 @@
       <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="C9">
-        <v>16</v>
+      <c r="C9" t="s">
+        <v>206</v>
       </c>
       <c r="D9">
         <v>500</v>
@@ -1325,8 +1534,8 @@
       <c r="B10" t="s">
         <v>30</v>
       </c>
-      <c r="C10">
-        <v>16</v>
+      <c r="C10" t="s">
+        <v>206</v>
       </c>
       <c r="D10">
         <v>1000</v>
@@ -1351,8 +1560,8 @@
       <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="C11">
-        <v>0</v>
+      <c r="C11" t="s">
+        <v>198</v>
       </c>
       <c r="D11">
         <v>50</v>
@@ -1377,8 +1586,8 @@
       <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="C12">
-        <v>3</v>
+      <c r="C12" t="s">
+        <v>207</v>
       </c>
       <c r="D12">
         <v>300</v>
@@ -1403,8 +1612,8 @@
       <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="C13">
-        <v>3</v>
+      <c r="C13" t="s">
+        <v>207</v>
       </c>
       <c r="D13">
         <v>500</v>
@@ -1429,8 +1638,8 @@
       <c r="B14" t="s">
         <v>31</v>
       </c>
-      <c r="C14">
-        <v>3</v>
+      <c r="C14" t="s">
+        <v>207</v>
       </c>
       <c r="D14">
         <v>400</v>
@@ -1455,8 +1664,8 @@
       <c r="B15" t="s">
         <v>32</v>
       </c>
-      <c r="C15">
-        <v>5</v>
+      <c r="C15" t="s">
+        <v>208</v>
       </c>
       <c r="D15">
         <v>800</v>
@@ -1481,8 +1690,8 @@
       <c r="B16" t="s">
         <v>33</v>
       </c>
-      <c r="C16">
-        <v>19</v>
+      <c r="C16" t="s">
+        <v>224</v>
       </c>
       <c r="D16">
         <v>2300</v>
@@ -1507,8 +1716,8 @@
       <c r="B17" t="s">
         <v>34</v>
       </c>
-      <c r="C17">
-        <v>4</v>
+      <c r="C17" t="s">
+        <v>225</v>
       </c>
       <c r="D17">
         <v>2000</v>
@@ -1533,8 +1742,8 @@
       <c r="B18" t="s">
         <v>35</v>
       </c>
-      <c r="C18">
-        <v>4</v>
+      <c r="C18" t="s">
+        <v>226</v>
       </c>
       <c r="D18">
         <v>400</v>
@@ -1559,8 +1768,8 @@
       <c r="B19" t="s">
         <v>36</v>
       </c>
-      <c r="C19">
-        <v>19</v>
+      <c r="C19" t="s">
+        <v>227</v>
       </c>
       <c r="D19">
         <v>2000</v>
@@ -1585,8 +1794,8 @@
       <c r="B20" t="s">
         <v>37</v>
       </c>
-      <c r="C20">
-        <v>5</v>
+      <c r="C20" t="s">
+        <v>228</v>
       </c>
       <c r="D20">
         <v>400</v>
@@ -1611,8 +1820,8 @@
       <c r="B21" t="s">
         <v>38</v>
       </c>
-      <c r="C21">
-        <v>5</v>
+      <c r="C21" t="s">
+        <v>210</v>
       </c>
       <c r="D21">
         <v>200</v>
@@ -1637,8 +1846,8 @@
       <c r="B22" t="s">
         <v>39</v>
       </c>
-      <c r="C22">
-        <v>5</v>
+      <c r="C22" t="s">
+        <v>208</v>
       </c>
       <c r="D22">
         <v>400</v>
@@ -1663,8 +1872,8 @@
       <c r="B23" t="s">
         <v>40</v>
       </c>
-      <c r="C23">
-        <v>5</v>
+      <c r="C23" t="s">
+        <v>228</v>
       </c>
       <c r="D23">
         <v>400</v>
@@ -1689,8 +1898,8 @@
       <c r="B24" t="s">
         <v>41</v>
       </c>
-      <c r="C24">
-        <v>20</v>
+      <c r="C24" t="s">
+        <v>229</v>
       </c>
       <c r="D24">
         <v>800</v>
@@ -1715,8 +1924,8 @@
       <c r="B25" t="s">
         <v>42</v>
       </c>
-      <c r="C25">
-        <v>20</v>
+      <c r="C25" t="s">
+        <v>230</v>
       </c>
       <c r="D25">
         <v>300</v>
@@ -1741,8 +1950,8 @@
       <c r="B26" t="s">
         <v>43</v>
       </c>
-      <c r="C26">
-        <v>14</v>
+      <c r="C26" t="s">
+        <v>231</v>
       </c>
       <c r="D26">
         <v>3000</v>
@@ -1767,8 +1976,8 @@
       <c r="B27" t="s">
         <v>44</v>
       </c>
-      <c r="C27">
-        <v>21</v>
+      <c r="C27" t="s">
+        <v>194</v>
       </c>
       <c r="D27">
         <v>200</v>
@@ -1793,8 +2002,8 @@
       <c r="B28" t="s">
         <v>45</v>
       </c>
-      <c r="C28">
-        <v>21</v>
+      <c r="C28" t="s">
+        <v>192</v>
       </c>
       <c r="D28">
         <v>500</v>
@@ -1819,8 +2028,8 @@
       <c r="B29" t="s">
         <v>46</v>
       </c>
-      <c r="C29">
-        <v>10</v>
+      <c r="C29" t="s">
+        <v>232</v>
       </c>
       <c r="D29">
         <v>200</v>
@@ -1845,8 +2054,8 @@
       <c r="B30" t="s">
         <v>47</v>
       </c>
-      <c r="C30">
-        <v>10</v>
+      <c r="C30" t="s">
+        <v>232</v>
       </c>
       <c r="D30">
         <v>500</v>
@@ -1871,8 +2080,8 @@
       <c r="B31" t="s">
         <v>48</v>
       </c>
-      <c r="C31">
-        <v>5</v>
+      <c r="C31" t="s">
+        <v>210</v>
       </c>
       <c r="D31">
         <v>200</v>
@@ -1897,8 +2106,8 @@
       <c r="B32" t="s">
         <v>49</v>
       </c>
-      <c r="C32">
-        <v>5</v>
+      <c r="C32" t="s">
+        <v>228</v>
       </c>
       <c r="D32">
         <v>500</v>
@@ -1923,8 +2132,8 @@
       <c r="B33" t="s">
         <v>50</v>
       </c>
-      <c r="C33">
-        <v>21</v>
+      <c r="C33" t="s">
+        <v>193</v>
       </c>
       <c r="D33">
         <v>200</v>
@@ -1949,8 +2158,8 @@
       <c r="B34" t="s">
         <v>51</v>
       </c>
-      <c r="C34">
-        <v>21</v>
+      <c r="C34" t="s">
+        <v>193</v>
       </c>
       <c r="D34">
         <v>500</v>
@@ -1975,8 +2184,8 @@
       <c r="B35" t="s">
         <v>52</v>
       </c>
-      <c r="C35">
-        <v>21</v>
+      <c r="C35" t="s">
+        <v>192</v>
       </c>
       <c r="D35">
         <v>500</v>
@@ -2001,8 +2210,8 @@
       <c r="B36" t="s">
         <v>8</v>
       </c>
-      <c r="C36">
-        <v>21</v>
+      <c r="C36" t="s">
+        <v>192</v>
       </c>
       <c r="D36">
         <v>500</v>
@@ -2027,8 +2236,8 @@
       <c r="B37" t="s">
         <v>9</v>
       </c>
-      <c r="C37">
-        <v>21</v>
+      <c r="C37" t="s">
+        <v>192</v>
       </c>
       <c r="D37">
         <v>800</v>
@@ -2053,8 +2262,8 @@
       <c r="B38" t="s">
         <v>53</v>
       </c>
-      <c r="C38">
-        <v>21</v>
+      <c r="C38" t="s">
+        <v>192</v>
       </c>
       <c r="D38">
         <v>500</v>
@@ -2079,8 +2288,8 @@
       <c r="B39" t="s">
         <v>54</v>
       </c>
-      <c r="C39">
-        <v>21</v>
+      <c r="C39" t="s">
+        <v>192</v>
       </c>
       <c r="D39">
         <v>500</v>
@@ -2105,8 +2314,8 @@
       <c r="B40" t="s">
         <v>10</v>
       </c>
-      <c r="C40">
-        <v>21</v>
+      <c r="C40" t="s">
+        <v>193</v>
       </c>
       <c r="D40">
         <v>500</v>
@@ -2131,8 +2340,8 @@
       <c r="B41" t="s">
         <v>11</v>
       </c>
-      <c r="C41">
-        <v>21</v>
+      <c r="C41" t="s">
+        <v>192</v>
       </c>
       <c r="D41">
         <v>800</v>
@@ -2157,8 +2366,8 @@
       <c r="B42" t="s">
         <v>55</v>
       </c>
-      <c r="C42">
-        <v>21</v>
+      <c r="C42" t="s">
+        <v>194</v>
       </c>
       <c r="D42">
         <v>400</v>
@@ -2183,8 +2392,8 @@
       <c r="B43" t="s">
         <v>56</v>
       </c>
-      <c r="C43">
-        <v>21</v>
+      <c r="C43" t="s">
+        <v>192</v>
       </c>
       <c r="D43">
         <v>200</v>
@@ -2209,8 +2418,8 @@
       <c r="B44" t="s">
         <v>57</v>
       </c>
-      <c r="C44">
-        <v>10</v>
+      <c r="C44" t="s">
+        <v>232</v>
       </c>
       <c r="D44">
         <v>200</v>
@@ -2235,8 +2444,8 @@
       <c r="B45" t="s">
         <v>58</v>
       </c>
-      <c r="C45">
-        <v>5</v>
+      <c r="C45" t="s">
+        <v>210</v>
       </c>
       <c r="D45">
         <v>200</v>
@@ -2261,8 +2470,8 @@
       <c r="B46" t="s">
         <v>59</v>
       </c>
-      <c r="C46">
-        <v>5</v>
+      <c r="C46" t="s">
+        <v>228</v>
       </c>
       <c r="D46">
         <v>100</v>
@@ -2287,8 +2496,8 @@
       <c r="B47" t="s">
         <v>60</v>
       </c>
-      <c r="C47">
-        <v>6</v>
+      <c r="C47" t="s">
+        <v>243</v>
       </c>
       <c r="D47">
         <v>300</v>
@@ -2313,8 +2522,8 @@
       <c r="B48" t="s">
         <v>61</v>
       </c>
-      <c r="C48">
-        <v>6</v>
+      <c r="C48" t="s">
+        <v>241</v>
       </c>
       <c r="D48">
         <v>400</v>
@@ -2339,8 +2548,8 @@
       <c r="B49" t="s">
         <v>62</v>
       </c>
-      <c r="C49">
-        <v>6</v>
+      <c r="C49" t="s">
+        <v>242</v>
       </c>
       <c r="D49">
         <v>500</v>
@@ -2365,8 +2574,8 @@
       <c r="B50" t="s">
         <v>63</v>
       </c>
-      <c r="C50">
-        <v>6</v>
+      <c r="C50" t="s">
+        <v>241</v>
       </c>
       <c r="D50">
         <v>600</v>
@@ -2391,8 +2600,8 @@
       <c r="B51" t="s">
         <v>64</v>
       </c>
-      <c r="C51">
-        <v>7</v>
+      <c r="C51" t="s">
+        <v>240</v>
       </c>
       <c r="D51">
         <v>1200</v>
@@ -2417,8 +2626,8 @@
       <c r="B52" t="s">
         <v>65</v>
       </c>
-      <c r="C52">
-        <v>5</v>
+      <c r="C52" t="s">
+        <v>210</v>
       </c>
       <c r="D52">
         <v>50</v>
@@ -2443,8 +2652,8 @@
       <c r="B53" t="s">
         <v>12</v>
       </c>
-      <c r="C53">
-        <v>22</v>
+      <c r="C53" t="s">
+        <v>239</v>
       </c>
       <c r="D53">
         <v>200</v>
@@ -2469,8 +2678,8 @@
       <c r="B54" t="s">
         <v>66</v>
       </c>
-      <c r="C54">
-        <v>22</v>
+      <c r="C54" t="s">
+        <v>239</v>
       </c>
       <c r="D54">
         <v>500</v>
@@ -2495,8 +2704,8 @@
       <c r="B55" t="s">
         <v>67</v>
       </c>
-      <c r="C55">
-        <v>22</v>
+      <c r="C55" t="s">
+        <v>239</v>
       </c>
       <c r="D55">
         <v>500</v>
@@ -2521,8 +2730,8 @@
       <c r="B56" t="s">
         <v>68</v>
       </c>
-      <c r="C56">
-        <v>2</v>
+      <c r="C56" t="s">
+        <v>205</v>
       </c>
       <c r="D56">
         <v>50</v>
@@ -2547,8 +2756,8 @@
       <c r="B57" t="s">
         <v>69</v>
       </c>
-      <c r="C57">
-        <v>5</v>
+      <c r="C57" t="s">
+        <v>210</v>
       </c>
       <c r="D57">
         <v>450</v>
@@ -2573,8 +2782,8 @@
       <c r="B58" t="s">
         <v>70</v>
       </c>
-      <c r="C58">
-        <v>23</v>
+      <c r="C58" t="s">
+        <v>238</v>
       </c>
       <c r="D58">
         <v>5000</v>
@@ -2599,8 +2808,8 @@
       <c r="B59" t="s">
         <v>71</v>
       </c>
-      <c r="C59">
-        <v>23</v>
+      <c r="C59" t="s">
+        <v>237</v>
       </c>
       <c r="D59">
         <v>2000</v>
@@ -2625,8 +2834,8 @@
       <c r="B60" t="s">
         <v>13</v>
       </c>
-      <c r="C60">
-        <v>23</v>
+      <c r="C60" t="s">
+        <v>237</v>
       </c>
       <c r="D60">
         <v>2500</v>
@@ -2651,8 +2860,8 @@
       <c r="B61" t="s">
         <v>72</v>
       </c>
-      <c r="C61">
-        <v>23</v>
+      <c r="C61" t="s">
+        <v>237</v>
       </c>
       <c r="D61">
         <v>5000</v>
@@ -2677,8 +2886,8 @@
       <c r="B62" t="s">
         <v>14</v>
       </c>
-      <c r="C62">
-        <v>0</v>
+      <c r="C62" t="s">
+        <v>235</v>
       </c>
       <c r="D62">
         <v>100</v>
@@ -2703,8 +2912,8 @@
       <c r="B63" t="s">
         <v>73</v>
       </c>
-      <c r="C63">
-        <v>0</v>
+      <c r="C63" t="s">
+        <v>236</v>
       </c>
       <c r="D63">
         <v>200</v>
@@ -2729,8 +2938,8 @@
       <c r="B64" t="s">
         <v>74</v>
       </c>
-      <c r="C64">
-        <v>0</v>
+      <c r="C64" t="s">
+        <v>235</v>
       </c>
       <c r="D64">
         <v>300</v>
@@ -2755,8 +2964,8 @@
       <c r="B65" t="s">
         <v>15</v>
       </c>
-      <c r="C65">
-        <v>17</v>
+      <c r="C65" t="s">
+        <v>234</v>
       </c>
       <c r="D65">
         <v>280</v>
@@ -2781,8 +2990,8 @@
       <c r="B66" t="s">
         <v>16</v>
       </c>
-      <c r="C66">
-        <v>17</v>
+      <c r="C66" t="s">
+        <v>234</v>
       </c>
       <c r="D66">
         <v>280</v>
@@ -2807,8 +3016,8 @@
       <c r="B67" t="s">
         <v>17</v>
       </c>
-      <c r="C67">
-        <v>17</v>
+      <c r="C67" t="s">
+        <v>234</v>
       </c>
       <c r="D67">
         <v>630</v>
@@ -2833,8 +3042,8 @@
       <c r="B68" t="s">
         <v>18</v>
       </c>
-      <c r="C68">
-        <v>17</v>
+      <c r="C68" t="s">
+        <v>234</v>
       </c>
       <c r="D68">
         <v>280</v>
@@ -2859,8 +3068,8 @@
       <c r="B69" t="s">
         <v>19</v>
       </c>
-      <c r="C69">
-        <v>17</v>
+      <c r="C69" t="s">
+        <v>234</v>
       </c>
       <c r="D69">
         <v>280</v>
@@ -2885,8 +3094,8 @@
       <c r="B70" t="s">
         <v>20</v>
       </c>
-      <c r="C70">
-        <v>17</v>
+      <c r="C70" t="s">
+        <v>233</v>
       </c>
       <c r="D70">
         <v>950</v>
@@ -2911,8 +3120,8 @@
       <c r="B71" t="s">
         <v>75</v>
       </c>
-      <c r="C71">
-        <v>11</v>
+      <c r="C71" t="s">
+        <v>195</v>
       </c>
       <c r="D71">
         <v>1500</v>
@@ -2937,8 +3146,8 @@
       <c r="B72" t="s">
         <v>76</v>
       </c>
-      <c r="C72">
-        <v>1</v>
+      <c r="C72" t="s">
+        <v>203</v>
       </c>
       <c r="D72">
         <v>1500</v>
@@ -2963,8 +3172,8 @@
       <c r="B73" t="s">
         <v>77</v>
       </c>
-      <c r="C73">
-        <v>5</v>
+      <c r="C73" t="s">
+        <v>228</v>
       </c>
       <c r="D73">
         <v>300</v>
@@ -2989,8 +3198,8 @@
       <c r="B74" t="s">
         <v>78</v>
       </c>
-      <c r="C74">
-        <v>4</v>
+      <c r="C74" t="s">
+        <v>197</v>
       </c>
       <c r="D74">
         <v>300</v>
@@ -3015,8 +3224,8 @@
       <c r="B75" t="s">
         <v>79</v>
       </c>
-      <c r="C75">
-        <v>4</v>
+      <c r="C75" t="s">
+        <v>197</v>
       </c>
       <c r="D75">
         <v>1600</v>
@@ -3041,8 +3250,8 @@
       <c r="B76" t="s">
         <v>80</v>
       </c>
-      <c r="C76">
-        <v>4</v>
+      <c r="C76" t="s">
+        <v>197</v>
       </c>
       <c r="D76">
         <v>900</v>
@@ -3067,8 +3276,8 @@
       <c r="B77" t="s">
         <v>81</v>
       </c>
-      <c r="C77">
-        <v>4</v>
+      <c r="C77" t="s">
+        <v>197</v>
       </c>
       <c r="D77">
         <v>330</v>
@@ -3093,8 +3302,8 @@
       <c r="B78" t="s">
         <v>82</v>
       </c>
-      <c r="C78">
-        <v>4</v>
+      <c r="C78" t="s">
+        <v>226</v>
       </c>
       <c r="D78">
         <v>1650</v>
@@ -3119,8 +3328,8 @@
       <c r="B79" t="s">
         <v>83</v>
       </c>
-      <c r="C79">
-        <v>4</v>
+      <c r="C79" t="s">
+        <v>226</v>
       </c>
       <c r="D79">
         <v>850</v>
@@ -3145,8 +3354,8 @@
       <c r="B80" t="s">
         <v>84</v>
       </c>
-      <c r="C80">
-        <v>11</v>
+      <c r="C80" t="s">
+        <v>223</v>
       </c>
       <c r="D80">
         <v>1500</v>
@@ -3171,8 +3380,8 @@
       <c r="B81" t="s">
         <v>85</v>
       </c>
-      <c r="C81">
-        <v>11</v>
+      <c r="C81" t="s">
+        <v>195</v>
       </c>
       <c r="D81">
         <v>2300</v>
@@ -3197,8 +3406,8 @@
       <c r="B82" t="s">
         <v>21</v>
       </c>
-      <c r="C82">
-        <v>17</v>
+      <c r="C82" t="s">
+        <v>222</v>
       </c>
       <c r="D82">
         <v>600</v>
@@ -3223,8 +3432,8 @@
       <c r="B83" t="s">
         <v>86</v>
       </c>
-      <c r="C83">
-        <v>8</v>
+      <c r="C83" t="s">
+        <v>221</v>
       </c>
       <c r="D83">
         <v>400</v>
@@ -3249,8 +3458,8 @@
       <c r="B84" t="s">
         <v>22</v>
       </c>
-      <c r="C84">
-        <v>8</v>
+      <c r="C84" t="s">
+        <v>220</v>
       </c>
       <c r="D84">
         <v>600</v>
@@ -3275,8 +3484,8 @@
       <c r="B85" t="s">
         <v>87</v>
       </c>
-      <c r="C85">
-        <v>8</v>
+      <c r="C85" t="s">
+        <v>220</v>
       </c>
       <c r="D85">
         <v>1500</v>
@@ -3301,8 +3510,8 @@
       <c r="B86" t="s">
         <v>88</v>
       </c>
-      <c r="C86">
-        <v>24</v>
+      <c r="C86" t="s">
+        <v>219</v>
       </c>
       <c r="D86">
         <v>600</v>
@@ -3327,8 +3536,8 @@
       <c r="B87" t="s">
         <v>89</v>
       </c>
-      <c r="C87">
-        <v>24</v>
+      <c r="C87" t="s">
+        <v>219</v>
       </c>
       <c r="D87">
         <v>1800</v>
@@ -3353,8 +3562,8 @@
       <c r="B88" t="s">
         <v>90</v>
       </c>
-      <c r="C88">
-        <v>24</v>
+      <c r="C88" t="s">
+        <v>214</v>
       </c>
       <c r="D88">
         <v>1000</v>
@@ -3379,8 +3588,8 @@
       <c r="B89" t="s">
         <v>91</v>
       </c>
-      <c r="C89">
-        <v>24</v>
+      <c r="C89" t="s">
+        <v>214</v>
       </c>
       <c r="D89">
         <v>500</v>
@@ -3405,8 +3614,8 @@
       <c r="B90" t="s">
         <v>92</v>
       </c>
-      <c r="C90">
-        <v>4</v>
+      <c r="C90" t="s">
+        <v>218</v>
       </c>
       <c r="D90">
         <v>1300</v>
@@ -3431,8 +3640,8 @@
       <c r="B91" t="s">
         <v>23</v>
       </c>
-      <c r="C91">
-        <v>24</v>
+      <c r="C91" t="s">
+        <v>213</v>
       </c>
       <c r="D91">
         <v>200</v>
@@ -3457,8 +3666,8 @@
       <c r="B92" t="s">
         <v>93</v>
       </c>
-      <c r="C92">
-        <v>24</v>
+      <c r="C92" t="s">
+        <v>217</v>
       </c>
       <c r="D92">
         <v>700</v>
@@ -3483,8 +3692,8 @@
       <c r="B93" t="s">
         <v>94</v>
       </c>
-      <c r="C93">
-        <v>13</v>
+      <c r="C93" t="s">
+        <v>216</v>
       </c>
       <c r="D93">
         <v>900</v>
@@ -3509,8 +3718,8 @@
       <c r="B94" t="s">
         <v>95</v>
       </c>
-      <c r="C94">
-        <v>13</v>
+      <c r="C94" t="s">
+        <v>215</v>
       </c>
       <c r="D94">
         <v>2400</v>
@@ -3535,8 +3744,8 @@
       <c r="B95" t="s">
         <v>96</v>
       </c>
-      <c r="C95">
-        <v>24</v>
+      <c r="C95" t="s">
+        <v>214</v>
       </c>
       <c r="D95">
         <v>300</v>
@@ -3561,8 +3770,8 @@
       <c r="B96" t="s">
         <v>97</v>
       </c>
-      <c r="C96">
-        <v>24</v>
+      <c r="C96" t="s">
+        <v>213</v>
       </c>
       <c r="D96">
         <v>500</v>
@@ -3587,8 +3796,8 @@
       <c r="B97" t="s">
         <v>98</v>
       </c>
-      <c r="C97">
-        <v>24</v>
+      <c r="C97" t="s">
+        <v>212</v>
       </c>
       <c r="D97">
         <v>1500</v>
@@ -3613,8 +3822,8 @@
       <c r="B98" t="s">
         <v>99</v>
       </c>
-      <c r="C98">
-        <v>5</v>
+      <c r="C98" t="s">
+        <v>210</v>
       </c>
       <c r="D98">
         <v>550</v>
@@ -3639,8 +3848,8 @@
       <c r="B99" t="s">
         <v>100</v>
       </c>
-      <c r="C99">
-        <v>5</v>
+      <c r="C99" t="s">
+        <v>210</v>
       </c>
       <c r="D99">
         <v>1000</v>
@@ -3665,8 +3874,8 @@
       <c r="B100" t="s">
         <v>101</v>
       </c>
-      <c r="C100">
-        <v>1</v>
+      <c r="C100" t="s">
+        <v>211</v>
       </c>
       <c r="D100">
         <v>230</v>
@@ -3691,8 +3900,8 @@
       <c r="B101" t="s">
         <v>102</v>
       </c>
-      <c r="C101">
-        <v>1</v>
+      <c r="C101" t="s">
+        <v>199</v>
       </c>
       <c r="D101">
         <v>350</v>
@@ -3717,8 +3926,8 @@
       <c r="B102" t="s">
         <v>103</v>
       </c>
-      <c r="C102">
-        <v>1</v>
+      <c r="C102" t="s">
+        <v>203</v>
       </c>
       <c r="D102">
         <v>850</v>
@@ -3743,8 +3952,8 @@
       <c r="B103" t="s">
         <v>104</v>
       </c>
-      <c r="C103">
-        <v>5</v>
+      <c r="C103" t="s">
+        <v>210</v>
       </c>
       <c r="D103">
         <v>450</v>
@@ -3769,8 +3978,8 @@
       <c r="B104" t="s">
         <v>105</v>
       </c>
-      <c r="C104">
-        <v>5</v>
+      <c r="C104" t="s">
+        <v>209</v>
       </c>
       <c r="D104">
         <v>1250</v>
@@ -3795,8 +4004,8 @@
       <c r="B105" t="s">
         <v>106</v>
       </c>
-      <c r="C105">
-        <v>1</v>
+      <c r="C105" t="s">
+        <v>203</v>
       </c>
       <c r="D105">
         <v>600</v>
@@ -3821,8 +4030,8 @@
       <c r="B106" t="s">
         <v>107</v>
       </c>
-      <c r="C106">
-        <v>21</v>
+      <c r="C106" t="s">
+        <v>192</v>
       </c>
       <c r="D106">
         <v>500</v>
@@ -3847,8 +4056,8 @@
       <c r="B107" t="s">
         <v>107</v>
       </c>
-      <c r="C107">
-        <v>21</v>
+      <c r="C107" t="s">
+        <v>192</v>
       </c>
       <c r="D107">
         <v>600</v>
@@ -3873,8 +4082,8 @@
       <c r="B108" t="s">
         <v>107</v>
       </c>
-      <c r="C108">
-        <v>21</v>
+      <c r="C108" t="s">
+        <v>193</v>
       </c>
       <c r="D108">
         <v>700</v>
@@ -3899,8 +4108,8 @@
       <c r="B109" t="s">
         <v>107</v>
       </c>
-      <c r="C109">
-        <v>21</v>
+      <c r="C109" t="s">
+        <v>194</v>
       </c>
       <c r="D109">
         <v>800</v>
@@ -3925,8 +4134,8 @@
       <c r="B110" t="s">
         <v>107</v>
       </c>
-      <c r="C110">
-        <v>21</v>
+      <c r="C110" t="s">
+        <v>192</v>
       </c>
       <c r="D110">
         <v>900</v>
@@ -3951,8 +4160,8 @@
       <c r="B111" t="s">
         <v>107</v>
       </c>
-      <c r="C111">
-        <v>21</v>
+      <c r="C111" t="s">
+        <v>192</v>
       </c>
       <c r="D111">
         <v>1000</v>
@@ -3977,8 +4186,8 @@
       <c r="B112" t="s">
         <v>107</v>
       </c>
-      <c r="C112">
-        <v>21</v>
+      <c r="C112" t="s">
+        <v>192</v>
       </c>
       <c r="D112">
         <v>1100</v>
@@ -4003,8 +4212,8 @@
       <c r="B113" t="s">
         <v>107</v>
       </c>
-      <c r="C113">
-        <v>21</v>
+      <c r="C113" t="s">
+        <v>193</v>
       </c>
       <c r="D113">
         <v>1200</v>
@@ -4029,8 +4238,8 @@
       <c r="B114" t="s">
         <v>107</v>
       </c>
-      <c r="C114">
-        <v>21</v>
+      <c r="C114" t="s">
+        <v>192</v>
       </c>
       <c r="D114">
         <v>1300</v>
@@ -4055,8 +4264,8 @@
       <c r="B115" t="s">
         <v>107</v>
       </c>
-      <c r="C115">
-        <v>21</v>
+      <c r="C115" t="s">
+        <v>192</v>
       </c>
       <c r="D115">
         <v>1400</v>
@@ -4081,8 +4290,8 @@
       <c r="B116" t="s">
         <v>107</v>
       </c>
-      <c r="C116">
-        <v>21</v>
+      <c r="C116" t="s">
+        <v>193</v>
       </c>
       <c r="D116">
         <v>1500</v>
@@ -4107,8 +4316,8 @@
       <c r="B117" t="s">
         <v>107</v>
       </c>
-      <c r="C117">
-        <v>21</v>
+      <c r="C117" t="s">
+        <v>193</v>
       </c>
       <c r="D117">
         <v>1500</v>
@@ -4133,8 +4342,8 @@
       <c r="B118" t="s">
         <v>107</v>
       </c>
-      <c r="C118">
-        <v>21</v>
+      <c r="C118" t="s">
+        <v>192</v>
       </c>
       <c r="D118">
         <v>1600</v>
@@ -4159,8 +4368,8 @@
       <c r="B119" t="s">
         <v>107</v>
       </c>
-      <c r="C119">
-        <v>21</v>
+      <c r="C119" t="s">
+        <v>192</v>
       </c>
       <c r="D119">
         <v>1700</v>
@@ -4185,8 +4394,8 @@
       <c r="B120" t="s">
         <v>107</v>
       </c>
-      <c r="C120">
-        <v>21</v>
+      <c r="C120" t="s">
+        <v>194</v>
       </c>
       <c r="D120">
         <v>1800</v>
@@ -4211,8 +4420,8 @@
       <c r="B121" t="s">
         <v>107</v>
       </c>
-      <c r="C121">
-        <v>21</v>
+      <c r="C121" t="s">
+        <v>192</v>
       </c>
       <c r="D121">
         <v>1900</v>
@@ -4237,8 +4446,8 @@
       <c r="B122" t="s">
         <v>107</v>
       </c>
-      <c r="C122">
-        <v>21</v>
+      <c r="C122" t="s">
+        <v>202</v>
       </c>
       <c r="D122">
         <v>2000</v>
@@ -4263,8 +4472,8 @@
       <c r="B123" t="s">
         <v>107</v>
       </c>
-      <c r="C123">
-        <v>21</v>
+      <c r="C123" t="s">
+        <v>192</v>
       </c>
       <c r="D123">
         <v>2100</v>
@@ -4289,8 +4498,8 @@
       <c r="B124" t="s">
         <v>107</v>
       </c>
-      <c r="C124">
-        <v>21</v>
+      <c r="C124" t="s">
+        <v>194</v>
       </c>
       <c r="D124">
         <v>2200</v>
@@ -4315,8 +4524,8 @@
       <c r="B125" t="s">
         <v>107</v>
       </c>
-      <c r="C125">
-        <v>21</v>
+      <c r="C125" t="s">
+        <v>194</v>
       </c>
       <c r="D125">
         <v>2300</v>
@@ -4341,8 +4550,8 @@
       <c r="B126" t="s">
         <v>107</v>
       </c>
-      <c r="C126">
-        <v>21</v>
+      <c r="C126" t="s">
+        <v>193</v>
       </c>
       <c r="D126">
         <v>2400</v>
@@ -4367,8 +4576,8 @@
       <c r="B127" t="s">
         <v>107</v>
       </c>
-      <c r="C127">
-        <v>21</v>
+      <c r="C127" t="s">
+        <v>192</v>
       </c>
       <c r="D127">
         <v>2500</v>
@@ -4393,8 +4602,8 @@
       <c r="B128" t="s">
         <v>107</v>
       </c>
-      <c r="C128">
-        <v>21</v>
+      <c r="C128" t="s">
+        <v>192</v>
       </c>
       <c r="D128">
         <v>2600</v>
@@ -4419,8 +4628,8 @@
       <c r="B129" t="s">
         <v>107</v>
       </c>
-      <c r="C129">
-        <v>21</v>
+      <c r="C129" t="s">
+        <v>192</v>
       </c>
       <c r="D129">
         <v>2700</v>
@@ -4445,8 +4654,8 @@
       <c r="B130" t="s">
         <v>107</v>
       </c>
-      <c r="C130">
-        <v>21</v>
+      <c r="C130" t="s">
+        <v>194</v>
       </c>
       <c r="D130">
         <v>2800</v>
@@ -4471,8 +4680,8 @@
       <c r="B131" t="s">
         <v>107</v>
       </c>
-      <c r="C131">
-        <v>21</v>
+      <c r="C131" t="s">
+        <v>201</v>
       </c>
       <c r="D131">
         <v>2900</v>
@@ -4497,8 +4706,8 @@
       <c r="B132" t="s">
         <v>107</v>
       </c>
-      <c r="C132">
-        <v>21</v>
+      <c r="C132" t="s">
+        <v>192</v>
       </c>
       <c r="D132">
         <v>3000</v>
@@ -4523,8 +4732,8 @@
       <c r="B133" t="s">
         <v>107</v>
       </c>
-      <c r="C133">
-        <v>21</v>
+      <c r="C133" t="s">
+        <v>192</v>
       </c>
       <c r="D133">
         <v>3100</v>
@@ -4549,8 +4758,8 @@
       <c r="B134" t="s">
         <v>107</v>
       </c>
-      <c r="C134">
-        <v>21</v>
+      <c r="C134" t="s">
+        <v>200</v>
       </c>
       <c r="D134">
         <v>3200</v>
@@ -4575,8 +4784,8 @@
       <c r="B135" t="s">
         <v>107</v>
       </c>
-      <c r="C135">
-        <v>21</v>
+      <c r="C135" t="s">
+        <v>192</v>
       </c>
       <c r="D135">
         <v>3300</v>
@@ -4601,8 +4810,8 @@
       <c r="B136" t="s">
         <v>108</v>
       </c>
-      <c r="C136">
-        <v>4</v>
+      <c r="C136" t="s">
+        <v>197</v>
       </c>
       <c r="D136">
         <v>400</v>
@@ -4627,8 +4836,8 @@
       <c r="B137" t="s">
         <v>109</v>
       </c>
-      <c r="C137">
-        <v>25</v>
+      <c r="C137" t="s">
+        <v>196</v>
       </c>
       <c r="D137">
         <v>5000</v>
@@ -4653,8 +4862,8 @@
       <c r="B138" t="s">
         <v>24</v>
       </c>
-      <c r="C138">
-        <v>25</v>
+      <c r="C138" t="s">
+        <v>196</v>
       </c>
       <c r="D138">
         <v>5000</v>
@@ -4679,8 +4888,8 @@
       <c r="B139" t="s">
         <v>75</v>
       </c>
-      <c r="C139">
-        <v>11</v>
+      <c r="C139" t="s">
+        <v>195</v>
       </c>
       <c r="D139">
         <v>1000</v>
@@ -4705,8 +4914,8 @@
       <c r="B140" t="s">
         <v>110</v>
       </c>
-      <c r="C140">
-        <v>21</v>
+      <c r="C140" t="s">
+        <v>192</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -4731,8 +4940,8 @@
       <c r="B141" t="s">
         <v>110</v>
       </c>
-      <c r="C141">
-        <v>21</v>
+      <c r="C141" t="s">
+        <v>192</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -4757,8 +4966,8 @@
       <c r="B142" t="s">
         <v>110</v>
       </c>
-      <c r="C142">
-        <v>21</v>
+      <c r="C142" t="s">
+        <v>193</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -4783,8 +4992,8 @@
       <c r="B143" t="s">
         <v>110</v>
       </c>
-      <c r="C143">
-        <v>21</v>
+      <c r="C143" t="s">
+        <v>194</v>
       </c>
       <c r="D143">
         <v>0</v>

--- a/jyx2/Assets/Mods/JYX2/Configs/战斗.xlsx
+++ b/jyx2/Assets/Mods/JYX2/Configs/战斗.xlsx
@@ -744,10 +744,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>71,67,62,60,51,26,22.19,8,7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>3,5,50,55,57,64,68,69,70,56</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -969,6 +965,10 @@
   </si>
   <si>
     <t>Jyx2Battle_6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>71,67,62,60,51,26,22,19,8,7</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1303,8 +1303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H143"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H138" sqref="H138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1362,7 +1362,7 @@
         <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>118</v>
@@ -1379,7 +1379,7 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D4">
         <v>150</v>
@@ -1405,7 +1405,7 @@
         <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D5">
         <v>200</v>
@@ -1431,7 +1431,7 @@
         <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D6">
         <v>100</v>
@@ -1457,7 +1457,7 @@
         <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D7">
         <v>100</v>
@@ -1483,7 +1483,7 @@
         <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D8">
         <v>500</v>
@@ -1509,7 +1509,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D9">
         <v>500</v>
@@ -1535,7 +1535,7 @@
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D10">
         <v>1000</v>
@@ -1561,7 +1561,7 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D11">
         <v>50</v>
@@ -1587,7 +1587,7 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D12">
         <v>300</v>
@@ -1613,7 +1613,7 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D13">
         <v>500</v>
@@ -1639,7 +1639,7 @@
         <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D14">
         <v>400</v>
@@ -1665,7 +1665,7 @@
         <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D15">
         <v>800</v>
@@ -1691,7 +1691,7 @@
         <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D16">
         <v>2300</v>
@@ -1717,7 +1717,7 @@
         <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D17">
         <v>2000</v>
@@ -1743,7 +1743,7 @@
         <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D18">
         <v>400</v>
@@ -1769,7 +1769,7 @@
         <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D19">
         <v>2000</v>
@@ -1795,7 +1795,7 @@
         <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D20">
         <v>400</v>
@@ -1821,7 +1821,7 @@
         <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D21">
         <v>200</v>
@@ -1847,7 +1847,7 @@
         <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D22">
         <v>400</v>
@@ -1873,7 +1873,7 @@
         <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D23">
         <v>400</v>
@@ -1899,7 +1899,7 @@
         <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D24">
         <v>800</v>
@@ -1925,7 +1925,7 @@
         <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D25">
         <v>300</v>
@@ -1951,7 +1951,7 @@
         <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D26">
         <v>3000</v>
@@ -1977,7 +1977,7 @@
         <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D27">
         <v>200</v>
@@ -2003,7 +2003,7 @@
         <v>45</v>
       </c>
       <c r="C28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D28">
         <v>500</v>
@@ -2029,7 +2029,7 @@
         <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D29">
         <v>200</v>
@@ -2055,7 +2055,7 @@
         <v>47</v>
       </c>
       <c r="C30" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D30">
         <v>500</v>
@@ -2081,7 +2081,7 @@
         <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D31">
         <v>200</v>
@@ -2107,7 +2107,7 @@
         <v>49</v>
       </c>
       <c r="C32" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D32">
         <v>500</v>
@@ -2133,7 +2133,7 @@
         <v>50</v>
       </c>
       <c r="C33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D33">
         <v>200</v>
@@ -2159,7 +2159,7 @@
         <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D34">
         <v>500</v>
@@ -2185,7 +2185,7 @@
         <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D35">
         <v>500</v>
@@ -2211,7 +2211,7 @@
         <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D36">
         <v>500</v>
@@ -2237,7 +2237,7 @@
         <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D37">
         <v>800</v>
@@ -2263,7 +2263,7 @@
         <v>53</v>
       </c>
       <c r="C38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D38">
         <v>500</v>
@@ -2289,7 +2289,7 @@
         <v>54</v>
       </c>
       <c r="C39" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D39">
         <v>500</v>
@@ -2315,7 +2315,7 @@
         <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D40">
         <v>500</v>
@@ -2341,7 +2341,7 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D41">
         <v>800</v>
@@ -2367,7 +2367,7 @@
         <v>55</v>
       </c>
       <c r="C42" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D42">
         <v>400</v>
@@ -2393,7 +2393,7 @@
         <v>56</v>
       </c>
       <c r="C43" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D43">
         <v>200</v>
@@ -2419,7 +2419,7 @@
         <v>57</v>
       </c>
       <c r="C44" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D44">
         <v>200</v>
@@ -2445,7 +2445,7 @@
         <v>58</v>
       </c>
       <c r="C45" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D45">
         <v>200</v>
@@ -2471,7 +2471,7 @@
         <v>59</v>
       </c>
       <c r="C46" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D46">
         <v>100</v>
@@ -2497,7 +2497,7 @@
         <v>60</v>
       </c>
       <c r="C47" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D47">
         <v>300</v>
@@ -2523,7 +2523,7 @@
         <v>61</v>
       </c>
       <c r="C48" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D48">
         <v>400</v>
@@ -2549,7 +2549,7 @@
         <v>62</v>
       </c>
       <c r="C49" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D49">
         <v>500</v>
@@ -2575,7 +2575,7 @@
         <v>63</v>
       </c>
       <c r="C50" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D50">
         <v>600</v>
@@ -2601,7 +2601,7 @@
         <v>64</v>
       </c>
       <c r="C51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D51">
         <v>1200</v>
@@ -2627,7 +2627,7 @@
         <v>65</v>
       </c>
       <c r="C52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D52">
         <v>50</v>
@@ -2653,7 +2653,7 @@
         <v>12</v>
       </c>
       <c r="C53" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D53">
         <v>200</v>
@@ -2679,7 +2679,7 @@
         <v>66</v>
       </c>
       <c r="C54" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D54">
         <v>500</v>
@@ -2705,7 +2705,7 @@
         <v>67</v>
       </c>
       <c r="C55" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D55">
         <v>500</v>
@@ -2731,7 +2731,7 @@
         <v>68</v>
       </c>
       <c r="C56" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D56">
         <v>50</v>
@@ -2757,7 +2757,7 @@
         <v>69</v>
       </c>
       <c r="C57" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D57">
         <v>450</v>
@@ -2783,7 +2783,7 @@
         <v>70</v>
       </c>
       <c r="C58" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D58">
         <v>5000</v>
@@ -2809,7 +2809,7 @@
         <v>71</v>
       </c>
       <c r="C59" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D59">
         <v>2000</v>
@@ -2835,7 +2835,7 @@
         <v>13</v>
       </c>
       <c r="C60" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D60">
         <v>2500</v>
@@ -2861,7 +2861,7 @@
         <v>72</v>
       </c>
       <c r="C61" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D61">
         <v>5000</v>
@@ -2870,7 +2870,7 @@
         <v>7</v>
       </c>
       <c r="F61" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G61">
         <v>-1</v>
@@ -2887,7 +2887,7 @@
         <v>14</v>
       </c>
       <c r="C62" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D62">
         <v>100</v>
@@ -2913,7 +2913,7 @@
         <v>73</v>
       </c>
       <c r="C63" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D63">
         <v>200</v>
@@ -2939,7 +2939,7 @@
         <v>74</v>
       </c>
       <c r="C64" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D64">
         <v>300</v>
@@ -2965,7 +2965,7 @@
         <v>15</v>
       </c>
       <c r="C65" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D65">
         <v>280</v>
@@ -2991,7 +2991,7 @@
         <v>16</v>
       </c>
       <c r="C66" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D66">
         <v>280</v>
@@ -3017,7 +3017,7 @@
         <v>17</v>
       </c>
       <c r="C67" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D67">
         <v>630</v>
@@ -3043,7 +3043,7 @@
         <v>18</v>
       </c>
       <c r="C68" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D68">
         <v>280</v>
@@ -3069,7 +3069,7 @@
         <v>19</v>
       </c>
       <c r="C69" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D69">
         <v>280</v>
@@ -3095,7 +3095,7 @@
         <v>20</v>
       </c>
       <c r="C70" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D70">
         <v>950</v>
@@ -3121,7 +3121,7 @@
         <v>75</v>
       </c>
       <c r="C71" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D71">
         <v>1500</v>
@@ -3147,7 +3147,7 @@
         <v>76</v>
       </c>
       <c r="C72" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D72">
         <v>1500</v>
@@ -3173,7 +3173,7 @@
         <v>77</v>
       </c>
       <c r="C73" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D73">
         <v>300</v>
@@ -3199,7 +3199,7 @@
         <v>78</v>
       </c>
       <c r="C74" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D74">
         <v>300</v>
@@ -3225,7 +3225,7 @@
         <v>79</v>
       </c>
       <c r="C75" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D75">
         <v>1600</v>
@@ -3251,7 +3251,7 @@
         <v>80</v>
       </c>
       <c r="C76" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D76">
         <v>900</v>
@@ -3277,7 +3277,7 @@
         <v>81</v>
       </c>
       <c r="C77" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D77">
         <v>330</v>
@@ -3303,7 +3303,7 @@
         <v>82</v>
       </c>
       <c r="C78" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D78">
         <v>1650</v>
@@ -3329,7 +3329,7 @@
         <v>83</v>
       </c>
       <c r="C79" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D79">
         <v>850</v>
@@ -3355,7 +3355,7 @@
         <v>84</v>
       </c>
       <c r="C80" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D80">
         <v>1500</v>
@@ -3381,7 +3381,7 @@
         <v>85</v>
       </c>
       <c r="C81" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D81">
         <v>2300</v>
@@ -3407,7 +3407,7 @@
         <v>21</v>
       </c>
       <c r="C82" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D82">
         <v>600</v>
@@ -3433,7 +3433,7 @@
         <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D83">
         <v>400</v>
@@ -3459,7 +3459,7 @@
         <v>22</v>
       </c>
       <c r="C84" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D84">
         <v>600</v>
@@ -3485,7 +3485,7 @@
         <v>87</v>
       </c>
       <c r="C85" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D85">
         <v>1500</v>
@@ -3511,7 +3511,7 @@
         <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D86">
         <v>600</v>
@@ -3537,7 +3537,7 @@
         <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D87">
         <v>1800</v>
@@ -3563,7 +3563,7 @@
         <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D88">
         <v>1000</v>
@@ -3589,7 +3589,7 @@
         <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D89">
         <v>500</v>
@@ -3615,7 +3615,7 @@
         <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D90">
         <v>1300</v>
@@ -3641,7 +3641,7 @@
         <v>23</v>
       </c>
       <c r="C91" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D91">
         <v>200</v>
@@ -3667,7 +3667,7 @@
         <v>93</v>
       </c>
       <c r="C92" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D92">
         <v>700</v>
@@ -3693,7 +3693,7 @@
         <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D93">
         <v>900</v>
@@ -3719,7 +3719,7 @@
         <v>95</v>
       </c>
       <c r="C94" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D94">
         <v>2400</v>
@@ -3745,7 +3745,7 @@
         <v>96</v>
       </c>
       <c r="C95" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D95">
         <v>300</v>
@@ -3771,7 +3771,7 @@
         <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D96">
         <v>500</v>
@@ -3797,7 +3797,7 @@
         <v>98</v>
       </c>
       <c r="C97" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D97">
         <v>1500</v>
@@ -3823,7 +3823,7 @@
         <v>99</v>
       </c>
       <c r="C98" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D98">
         <v>550</v>
@@ -3849,7 +3849,7 @@
         <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D99">
         <v>1000</v>
@@ -3875,7 +3875,7 @@
         <v>101</v>
       </c>
       <c r="C100" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D100">
         <v>230</v>
@@ -3901,7 +3901,7 @@
         <v>102</v>
       </c>
       <c r="C101" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D101">
         <v>350</v>
@@ -3927,7 +3927,7 @@
         <v>103</v>
       </c>
       <c r="C102" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D102">
         <v>850</v>
@@ -3953,7 +3953,7 @@
         <v>104</v>
       </c>
       <c r="C103" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D103">
         <v>450</v>
@@ -3979,7 +3979,7 @@
         <v>105</v>
       </c>
       <c r="C104" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D104">
         <v>1250</v>
@@ -4005,7 +4005,7 @@
         <v>106</v>
       </c>
       <c r="C105" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D105">
         <v>600</v>
@@ -4031,7 +4031,7 @@
         <v>107</v>
       </c>
       <c r="C106" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D106">
         <v>500</v>
@@ -4057,7 +4057,7 @@
         <v>107</v>
       </c>
       <c r="C107" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D107">
         <v>600</v>
@@ -4083,7 +4083,7 @@
         <v>107</v>
       </c>
       <c r="C108" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D108">
         <v>700</v>
@@ -4109,7 +4109,7 @@
         <v>107</v>
       </c>
       <c r="C109" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D109">
         <v>800</v>
@@ -4135,7 +4135,7 @@
         <v>107</v>
       </c>
       <c r="C110" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D110">
         <v>900</v>
@@ -4161,7 +4161,7 @@
         <v>107</v>
       </c>
       <c r="C111" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D111">
         <v>1000</v>
@@ -4187,7 +4187,7 @@
         <v>107</v>
       </c>
       <c r="C112" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D112">
         <v>1100</v>
@@ -4213,7 +4213,7 @@
         <v>107</v>
       </c>
       <c r="C113" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D113">
         <v>1200</v>
@@ -4239,7 +4239,7 @@
         <v>107</v>
       </c>
       <c r="C114" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D114">
         <v>1300</v>
@@ -4265,7 +4265,7 @@
         <v>107</v>
       </c>
       <c r="C115" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D115">
         <v>1400</v>
@@ -4291,7 +4291,7 @@
         <v>107</v>
       </c>
       <c r="C116" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D116">
         <v>1500</v>
@@ -4317,7 +4317,7 @@
         <v>107</v>
       </c>
       <c r="C117" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D117">
         <v>1500</v>
@@ -4343,7 +4343,7 @@
         <v>107</v>
       </c>
       <c r="C118" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D118">
         <v>1600</v>
@@ -4369,7 +4369,7 @@
         <v>107</v>
       </c>
       <c r="C119" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D119">
         <v>1700</v>
@@ -4395,7 +4395,7 @@
         <v>107</v>
       </c>
       <c r="C120" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D120">
         <v>1800</v>
@@ -4421,7 +4421,7 @@
         <v>107</v>
       </c>
       <c r="C121" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D121">
         <v>1900</v>
@@ -4447,7 +4447,7 @@
         <v>107</v>
       </c>
       <c r="C122" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D122">
         <v>2000</v>
@@ -4473,7 +4473,7 @@
         <v>107</v>
       </c>
       <c r="C123" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D123">
         <v>2100</v>
@@ -4499,7 +4499,7 @@
         <v>107</v>
       </c>
       <c r="C124" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D124">
         <v>2200</v>
@@ -4525,7 +4525,7 @@
         <v>107</v>
       </c>
       <c r="C125" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D125">
         <v>2300</v>
@@ -4551,7 +4551,7 @@
         <v>107</v>
       </c>
       <c r="C126" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D126">
         <v>2400</v>
@@ -4577,7 +4577,7 @@
         <v>107</v>
       </c>
       <c r="C127" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D127">
         <v>2500</v>
@@ -4603,7 +4603,7 @@
         <v>107</v>
       </c>
       <c r="C128" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D128">
         <v>2600</v>
@@ -4629,7 +4629,7 @@
         <v>107</v>
       </c>
       <c r="C129" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D129">
         <v>2700</v>
@@ -4655,7 +4655,7 @@
         <v>107</v>
       </c>
       <c r="C130" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D130">
         <v>2800</v>
@@ -4681,7 +4681,7 @@
         <v>107</v>
       </c>
       <c r="C131" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D131">
         <v>2900</v>
@@ -4707,7 +4707,7 @@
         <v>107</v>
       </c>
       <c r="C132" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D132">
         <v>3000</v>
@@ -4733,7 +4733,7 @@
         <v>107</v>
       </c>
       <c r="C133" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D133">
         <v>3100</v>
@@ -4759,7 +4759,7 @@
         <v>107</v>
       </c>
       <c r="C134" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D134">
         <v>3200</v>
@@ -4785,7 +4785,7 @@
         <v>107</v>
       </c>
       <c r="C135" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D135">
         <v>3300</v>
@@ -4811,7 +4811,7 @@
         <v>108</v>
       </c>
       <c r="C136" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D136">
         <v>400</v>
@@ -4837,7 +4837,7 @@
         <v>109</v>
       </c>
       <c r="C137" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D137">
         <v>5000</v>
@@ -4852,7 +4852,7 @@
         <v>0</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>187</v>
+        <v>243</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
@@ -4863,7 +4863,7 @@
         <v>24</v>
       </c>
       <c r="C138" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D138">
         <v>5000</v>
@@ -4878,7 +4878,7 @@
         <v>0</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
@@ -4889,7 +4889,7 @@
         <v>75</v>
       </c>
       <c r="C139" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D139">
         <v>1000</v>
@@ -4915,7 +4915,7 @@
         <v>110</v>
       </c>
       <c r="C140" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -4941,7 +4941,7 @@
         <v>110</v>
       </c>
       <c r="C141" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -4967,7 +4967,7 @@
         <v>110</v>
       </c>
       <c r="C142" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -4993,7 +4993,7 @@
         <v>110</v>
       </c>
       <c r="C143" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -5008,7 +5008,7 @@
         <v>0</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/jyx2/Assets/Mods/JYX2/Configs/战斗.xlsx
+++ b/jyx2/Assets/Mods/JYX2/Configs/战斗.xlsx
@@ -36,9 +36,6 @@
     <t>音乐</t>
   </si>
   <si>
-    <t>千年人蔘</t>
-  </si>
-  <si>
     <t>明教分舵</t>
   </si>
   <si>
@@ -84,9 +81,6 @@
     <t>救神鵰</t>
   </si>
   <si>
-    <t>蟒牯朱蛤</t>
-  </si>
-  <si>
     <t>少林寺外</t>
   </si>
   <si>
@@ -969,6 +963,14 @@
   </si>
   <si>
     <t>71,67,62,60,51,26,22,19,8,7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>千年人参</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>莽牯朱蛤</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -976,7 +978,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -991,6 +993,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1016,11 +1025,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1303,8 +1313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H138" sqref="H138"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82:XFD82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1316,33 +1326,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" t="s">
         <v>115</v>
       </c>
-      <c r="B2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>117</v>
       </c>
-      <c r="G2" t="s">
-        <v>119</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1362,13 +1372,13 @@
         <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1376,10 +1386,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D4">
         <v>150</v>
@@ -1402,10 +1412,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D5">
         <v>200</v>
@@ -1428,10 +1438,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D6">
         <v>100</v>
@@ -1454,10 +1464,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D7">
         <v>100</v>
@@ -1472,7 +1482,7 @@
         <v>-1</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1480,10 +1490,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D8">
         <v>500</v>
@@ -1505,11 +1515,11 @@
       <c r="A9">
         <v>5</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
+      <c r="B9" s="4" t="s">
+        <v>242</v>
       </c>
       <c r="C9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D9">
         <v>500</v>
@@ -1524,7 +1534,7 @@
         <v>-1</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1532,10 +1542,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D10">
         <v>1000</v>
@@ -1550,7 +1560,7 @@
         <v>-1</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1558,10 +1568,10 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D11">
         <v>50</v>
@@ -1584,10 +1594,10 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D12">
         <v>300</v>
@@ -1602,7 +1612,7 @@
         <v>-1</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1610,10 +1620,10 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D13">
         <v>500</v>
@@ -1628,7 +1638,7 @@
         <v>-1</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1636,10 +1646,10 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D14">
         <v>400</v>
@@ -1662,10 +1672,10 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D15">
         <v>800</v>
@@ -1680,7 +1690,7 @@
         <v>-1</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1688,10 +1698,10 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D16">
         <v>2300</v>
@@ -1706,7 +1716,7 @@
         <v>-1</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1714,10 +1724,10 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D17">
         <v>2000</v>
@@ -1732,7 +1742,7 @@
         <v>-1</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1740,10 +1750,10 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D18">
         <v>400</v>
@@ -1766,10 +1776,10 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D19">
         <v>2000</v>
@@ -1784,7 +1794,7 @@
         <v>-1</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1792,10 +1802,10 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D20">
         <v>400</v>
@@ -1810,7 +1820,7 @@
         <v>-1</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1818,10 +1828,10 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D21">
         <v>200</v>
@@ -1836,7 +1846,7 @@
         <v>-1</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1844,10 +1854,10 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D22">
         <v>400</v>
@@ -1862,7 +1872,7 @@
         <v>-1</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1870,10 +1880,10 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D23">
         <v>400</v>
@@ -1888,7 +1898,7 @@
         <v>-1</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1896,10 +1906,10 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D24">
         <v>800</v>
@@ -1922,10 +1932,10 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D25">
         <v>300</v>
@@ -1940,7 +1950,7 @@
         <v>-1</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1948,10 +1958,10 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D26">
         <v>3000</v>
@@ -1974,10 +1984,10 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D27">
         <v>200</v>
@@ -1992,7 +2002,7 @@
         <v>-1</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -2000,10 +2010,10 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D28">
         <v>500</v>
@@ -2018,7 +2028,7 @@
         <v>-1</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -2026,10 +2036,10 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D29">
         <v>200</v>
@@ -2044,7 +2054,7 @@
         <v>-1</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -2052,10 +2062,10 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D30">
         <v>500</v>
@@ -2070,7 +2080,7 @@
         <v>-1</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -2078,10 +2088,10 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D31">
         <v>200</v>
@@ -2096,7 +2106,7 @@
         <v>-1</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -2104,10 +2114,10 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C32" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D32">
         <v>500</v>
@@ -2122,7 +2132,7 @@
         <v>-1</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -2130,10 +2140,10 @@
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C33" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D33">
         <v>200</v>
@@ -2148,7 +2158,7 @@
         <v>-1</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -2156,10 +2166,10 @@
         <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C34" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D34">
         <v>500</v>
@@ -2182,10 +2192,10 @@
         <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C35" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D35">
         <v>500</v>
@@ -2208,10 +2218,10 @@
         <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D36">
         <v>500</v>
@@ -2234,10 +2244,10 @@
         <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D37">
         <v>800</v>
@@ -2260,10 +2270,10 @@
         <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D38">
         <v>500</v>
@@ -2286,10 +2296,10 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D39">
         <v>500</v>
@@ -2312,10 +2322,10 @@
         <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D40">
         <v>500</v>
@@ -2338,10 +2348,10 @@
         <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D41">
         <v>800</v>
@@ -2364,10 +2374,10 @@
         <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C42" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D42">
         <v>400</v>
@@ -2382,7 +2392,7 @@
         <v>-1</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -2390,10 +2400,10 @@
         <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C43" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D43">
         <v>200</v>
@@ -2408,7 +2418,7 @@
         <v>-1</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -2416,10 +2426,10 @@
         <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C44" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D44">
         <v>200</v>
@@ -2434,7 +2444,7 @@
         <v>-1</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -2442,10 +2452,10 @@
         <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C45" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D45">
         <v>200</v>
@@ -2460,7 +2470,7 @@
         <v>-1</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -2468,10 +2478,10 @@
         <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C46" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D46">
         <v>100</v>
@@ -2486,7 +2496,7 @@
         <v>-1</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -2494,10 +2504,10 @@
         <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C47" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D47">
         <v>300</v>
@@ -2520,10 +2530,10 @@
         <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C48" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D48">
         <v>400</v>
@@ -2546,10 +2556,10 @@
         <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C49" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D49">
         <v>500</v>
@@ -2572,10 +2582,10 @@
         <v>46</v>
       </c>
       <c r="B50" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C50" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D50">
         <v>600</v>
@@ -2598,10 +2608,10 @@
         <v>47</v>
       </c>
       <c r="B51" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C51" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D51">
         <v>1200</v>
@@ -2616,7 +2626,7 @@
         <v>-1</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -2624,10 +2634,10 @@
         <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C52" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D52">
         <v>50</v>
@@ -2650,10 +2660,10 @@
         <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D53">
         <v>200</v>
@@ -2668,7 +2678,7 @@
         <v>-1</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
@@ -2676,10 +2686,10 @@
         <v>50</v>
       </c>
       <c r="B54" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C54" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D54">
         <v>500</v>
@@ -2694,7 +2704,7 @@
         <v>-1</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -2702,10 +2712,10 @@
         <v>51</v>
       </c>
       <c r="B55" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C55" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D55">
         <v>500</v>
@@ -2720,7 +2730,7 @@
         <v>36</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
@@ -2728,10 +2738,10 @@
         <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C56" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D56">
         <v>50</v>
@@ -2754,10 +2764,10 @@
         <v>53</v>
       </c>
       <c r="B57" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C57" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D57">
         <v>450</v>
@@ -2780,10 +2790,10 @@
         <v>54</v>
       </c>
       <c r="B58" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C58" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D58">
         <v>5000</v>
@@ -2798,7 +2808,7 @@
         <v>-1</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -2806,10 +2816,10 @@
         <v>55</v>
       </c>
       <c r="B59" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C59" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D59">
         <v>2000</v>
@@ -2824,7 +2834,7 @@
         <v>-1</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -2832,10 +2842,10 @@
         <v>56</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D60">
         <v>2500</v>
@@ -2850,7 +2860,7 @@
         <v>-1</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -2858,10 +2868,10 @@
         <v>57</v>
       </c>
       <c r="B61" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C61" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D61">
         <v>5000</v>
@@ -2870,13 +2880,13 @@
         <v>7</v>
       </c>
       <c r="F61" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G61">
         <v>-1</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -2884,10 +2894,10 @@
         <v>58</v>
       </c>
       <c r="B62" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C62" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D62">
         <v>100</v>
@@ -2902,7 +2912,7 @@
         <v>-1</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
@@ -2910,10 +2920,10 @@
         <v>59</v>
       </c>
       <c r="B63" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C63" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D63">
         <v>200</v>
@@ -2936,10 +2946,10 @@
         <v>60</v>
       </c>
       <c r="B64" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C64" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D64">
         <v>300</v>
@@ -2954,7 +2964,7 @@
         <v>-1</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
@@ -2962,10 +2972,10 @@
         <v>61</v>
       </c>
       <c r="B65" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C65" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D65">
         <v>280</v>
@@ -2980,7 +2990,7 @@
         <v>-1</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
@@ -2988,10 +2998,10 @@
         <v>62</v>
       </c>
       <c r="B66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C66" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D66">
         <v>280</v>
@@ -3006,7 +3016,7 @@
         <v>-1</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -3014,10 +3024,10 @@
         <v>63</v>
       </c>
       <c r="B67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D67">
         <v>630</v>
@@ -3032,7 +3042,7 @@
         <v>-1</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
@@ -3040,10 +3050,10 @@
         <v>64</v>
       </c>
       <c r="B68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C68" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D68">
         <v>280</v>
@@ -3058,7 +3068,7 @@
         <v>-1</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
@@ -3066,10 +3076,10 @@
         <v>65</v>
       </c>
       <c r="B69" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C69" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D69">
         <v>280</v>
@@ -3084,7 +3094,7 @@
         <v>-1</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
@@ -3092,10 +3102,10 @@
         <v>66</v>
       </c>
       <c r="B70" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C70" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D70">
         <v>950</v>
@@ -3118,10 +3128,10 @@
         <v>67</v>
       </c>
       <c r="B71" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D71">
         <v>1500</v>
@@ -3144,10 +3154,10 @@
         <v>68</v>
       </c>
       <c r="B72" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D72">
         <v>1500</v>
@@ -3170,10 +3180,10 @@
         <v>69</v>
       </c>
       <c r="B73" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D73">
         <v>300</v>
@@ -3196,10 +3206,10 @@
         <v>70</v>
       </c>
       <c r="B74" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D74">
         <v>300</v>
@@ -3214,7 +3224,7 @@
         <v>-1</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
@@ -3222,10 +3232,10 @@
         <v>71</v>
       </c>
       <c r="B75" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D75">
         <v>1600</v>
@@ -3240,7 +3250,7 @@
         <v>-1</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
@@ -3248,10 +3258,10 @@
         <v>72</v>
       </c>
       <c r="B76" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D76">
         <v>900</v>
@@ -3266,7 +3276,7 @@
         <v>-1</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
@@ -3274,10 +3284,10 @@
         <v>73</v>
       </c>
       <c r="B77" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D77">
         <v>330</v>
@@ -3292,7 +3302,7 @@
         <v>-1</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
@@ -3300,10 +3310,10 @@
         <v>74</v>
       </c>
       <c r="B78" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D78">
         <v>1650</v>
@@ -3318,7 +3328,7 @@
         <v>-1</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
@@ -3326,10 +3336,10 @@
         <v>75</v>
       </c>
       <c r="B79" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D79">
         <v>850</v>
@@ -3344,7 +3354,7 @@
         <v>-1</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
@@ -3352,10 +3362,10 @@
         <v>76</v>
       </c>
       <c r="B80" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C80" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D80">
         <v>1500</v>
@@ -3378,10 +3388,10 @@
         <v>77</v>
       </c>
       <c r="B81" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D81">
         <v>2300</v>
@@ -3396,18 +3406,18 @@
         <v>-1</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>78</v>
       </c>
-      <c r="B82" t="s">
-        <v>21</v>
+      <c r="B82" s="4" t="s">
+        <v>243</v>
       </c>
       <c r="C82" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D82">
         <v>600</v>
@@ -3430,10 +3440,10 @@
         <v>79</v>
       </c>
       <c r="B83" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C83" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D83">
         <v>400</v>
@@ -3448,7 +3458,7 @@
         <v>-1</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
@@ -3456,10 +3466,10 @@
         <v>80</v>
       </c>
       <c r="B84" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C84" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D84">
         <v>600</v>
@@ -3474,7 +3484,7 @@
         <v>-1</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
@@ -3482,10 +3492,10 @@
         <v>81</v>
       </c>
       <c r="B85" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C85" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D85">
         <v>1500</v>
@@ -3500,7 +3510,7 @@
         <v>-1</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
@@ -3508,10 +3518,10 @@
         <v>82</v>
       </c>
       <c r="B86" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C86" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D86">
         <v>600</v>
@@ -3526,7 +3536,7 @@
         <v>-1</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
@@ -3534,10 +3544,10 @@
         <v>83</v>
       </c>
       <c r="B87" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C87" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D87">
         <v>1800</v>
@@ -3560,10 +3570,10 @@
         <v>84</v>
       </c>
       <c r="B88" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C88" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D88">
         <v>1000</v>
@@ -3578,7 +3588,7 @@
         <v>-1</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
@@ -3586,10 +3596,10 @@
         <v>85</v>
       </c>
       <c r="B89" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C89" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D89">
         <v>500</v>
@@ -3612,10 +3622,10 @@
         <v>86</v>
       </c>
       <c r="B90" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C90" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D90">
         <v>1300</v>
@@ -3630,7 +3640,7 @@
         <v>-1</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
@@ -3638,10 +3648,10 @@
         <v>87</v>
       </c>
       <c r="B91" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C91" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D91">
         <v>200</v>
@@ -3656,7 +3666,7 @@
         <v>-1</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
@@ -3664,10 +3674,10 @@
         <v>88</v>
       </c>
       <c r="B92" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C92" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D92">
         <v>700</v>
@@ -3690,10 +3700,10 @@
         <v>89</v>
       </c>
       <c r="B93" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C93" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D93">
         <v>900</v>
@@ -3708,7 +3718,7 @@
         <v>-1</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
@@ -3716,10 +3726,10 @@
         <v>90</v>
       </c>
       <c r="B94" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C94" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D94">
         <v>2400</v>
@@ -3734,7 +3744,7 @@
         <v>-1</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
@@ -3742,10 +3752,10 @@
         <v>91</v>
       </c>
       <c r="B95" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C95" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D95">
         <v>300</v>
@@ -3760,7 +3770,7 @@
         <v>-1</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
@@ -3768,10 +3778,10 @@
         <v>92</v>
       </c>
       <c r="B96" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C96" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D96">
         <v>500</v>
@@ -3786,7 +3796,7 @@
         <v>-1</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
@@ -3794,10 +3804,10 @@
         <v>93</v>
       </c>
       <c r="B97" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C97" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D97">
         <v>1500</v>
@@ -3812,7 +3822,7 @@
         <v>-1</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
@@ -3820,10 +3830,10 @@
         <v>94</v>
       </c>
       <c r="B98" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C98" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D98">
         <v>550</v>
@@ -3838,7 +3848,7 @@
         <v>-1</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
@@ -3846,10 +3856,10 @@
         <v>95</v>
       </c>
       <c r="B99" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C99" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D99">
         <v>1000</v>
@@ -3864,7 +3874,7 @@
         <v>-1</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
@@ -3872,10 +3882,10 @@
         <v>96</v>
       </c>
       <c r="B100" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C100" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D100">
         <v>230</v>
@@ -3890,7 +3900,7 @@
         <v>-1</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
@@ -3898,10 +3908,10 @@
         <v>97</v>
       </c>
       <c r="B101" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C101" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D101">
         <v>350</v>
@@ -3916,7 +3926,7 @@
         <v>-1</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
@@ -3924,10 +3934,10 @@
         <v>98</v>
       </c>
       <c r="B102" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C102" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D102">
         <v>850</v>
@@ -3942,7 +3952,7 @@
         <v>-1</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
@@ -3950,10 +3960,10 @@
         <v>99</v>
       </c>
       <c r="B103" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C103" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D103">
         <v>450</v>
@@ -3968,7 +3978,7 @@
         <v>-1</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
@@ -3976,10 +3986,10 @@
         <v>100</v>
       </c>
       <c r="B104" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C104" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D104">
         <v>1250</v>
@@ -3994,7 +4004,7 @@
         <v>-1</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
@@ -4002,10 +4012,10 @@
         <v>101</v>
       </c>
       <c r="B105" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C105" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D105">
         <v>600</v>
@@ -4028,10 +4038,10 @@
         <v>102</v>
       </c>
       <c r="B106" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C106" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D106">
         <v>500</v>
@@ -4054,10 +4064,10 @@
         <v>103</v>
       </c>
       <c r="B107" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C107" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D107">
         <v>600</v>
@@ -4080,10 +4090,10 @@
         <v>104</v>
       </c>
       <c r="B108" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C108" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D108">
         <v>700</v>
@@ -4106,10 +4116,10 @@
         <v>105</v>
       </c>
       <c r="B109" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C109" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D109">
         <v>800</v>
@@ -4132,10 +4142,10 @@
         <v>106</v>
       </c>
       <c r="B110" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C110" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D110">
         <v>900</v>
@@ -4158,10 +4168,10 @@
         <v>107</v>
       </c>
       <c r="B111" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C111" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D111">
         <v>1000</v>
@@ -4184,10 +4194,10 @@
         <v>108</v>
       </c>
       <c r="B112" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C112" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D112">
         <v>1100</v>
@@ -4210,10 +4220,10 @@
         <v>109</v>
       </c>
       <c r="B113" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C113" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D113">
         <v>1200</v>
@@ -4236,10 +4246,10 @@
         <v>110</v>
       </c>
       <c r="B114" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C114" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D114">
         <v>1300</v>
@@ -4262,10 +4272,10 @@
         <v>111</v>
       </c>
       <c r="B115" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C115" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D115">
         <v>1400</v>
@@ -4288,10 +4298,10 @@
         <v>112</v>
       </c>
       <c r="B116" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C116" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D116">
         <v>1500</v>
@@ -4314,10 +4324,10 @@
         <v>113</v>
       </c>
       <c r="B117" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C117" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D117">
         <v>1500</v>
@@ -4340,10 +4350,10 @@
         <v>114</v>
       </c>
       <c r="B118" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C118" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D118">
         <v>1600</v>
@@ -4366,10 +4376,10 @@
         <v>115</v>
       </c>
       <c r="B119" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C119" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D119">
         <v>1700</v>
@@ -4392,10 +4402,10 @@
         <v>116</v>
       </c>
       <c r="B120" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C120" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D120">
         <v>1800</v>
@@ -4418,10 +4428,10 @@
         <v>117</v>
       </c>
       <c r="B121" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C121" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D121">
         <v>1900</v>
@@ -4444,10 +4454,10 @@
         <v>118</v>
       </c>
       <c r="B122" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C122" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D122">
         <v>2000</v>
@@ -4470,10 +4480,10 @@
         <v>119</v>
       </c>
       <c r="B123" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C123" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D123">
         <v>2100</v>
@@ -4496,10 +4506,10 @@
         <v>120</v>
       </c>
       <c r="B124" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C124" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D124">
         <v>2200</v>
@@ -4522,10 +4532,10 @@
         <v>121</v>
       </c>
       <c r="B125" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C125" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D125">
         <v>2300</v>
@@ -4548,10 +4558,10 @@
         <v>122</v>
       </c>
       <c r="B126" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C126" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D126">
         <v>2400</v>
@@ -4574,10 +4584,10 @@
         <v>123</v>
       </c>
       <c r="B127" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C127" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D127">
         <v>2500</v>
@@ -4600,10 +4610,10 @@
         <v>124</v>
       </c>
       <c r="B128" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C128" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D128">
         <v>2600</v>
@@ -4626,10 +4636,10 @@
         <v>125</v>
       </c>
       <c r="B129" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C129" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D129">
         <v>2700</v>
@@ -4652,10 +4662,10 @@
         <v>126</v>
       </c>
       <c r="B130" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C130" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D130">
         <v>2800</v>
@@ -4678,10 +4688,10 @@
         <v>127</v>
       </c>
       <c r="B131" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C131" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D131">
         <v>2900</v>
@@ -4704,10 +4714,10 @@
         <v>128</v>
       </c>
       <c r="B132" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C132" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D132">
         <v>3000</v>
@@ -4730,10 +4740,10 @@
         <v>129</v>
       </c>
       <c r="B133" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C133" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D133">
         <v>3100</v>
@@ -4756,10 +4766,10 @@
         <v>130</v>
       </c>
       <c r="B134" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C134" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D134">
         <v>3200</v>
@@ -4782,10 +4792,10 @@
         <v>131</v>
       </c>
       <c r="B135" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C135" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D135">
         <v>3300</v>
@@ -4808,10 +4818,10 @@
         <v>132</v>
       </c>
       <c r="B136" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C136" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D136">
         <v>400</v>
@@ -4834,10 +4844,10 @@
         <v>133</v>
       </c>
       <c r="B137" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C137" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D137">
         <v>5000</v>
@@ -4852,7 +4862,7 @@
         <v>0</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
@@ -4860,10 +4870,10 @@
         <v>134</v>
       </c>
       <c r="B138" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C138" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D138">
         <v>5000</v>
@@ -4878,7 +4888,7 @@
         <v>0</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
@@ -4886,10 +4896,10 @@
         <v>135</v>
       </c>
       <c r="B139" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C139" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D139">
         <v>1000</v>
@@ -4912,10 +4922,10 @@
         <v>136</v>
       </c>
       <c r="B140" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C140" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -4938,10 +4948,10 @@
         <v>137</v>
       </c>
       <c r="B141" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C141" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -4964,10 +4974,10 @@
         <v>138</v>
       </c>
       <c r="B142" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C142" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -4990,10 +5000,10 @@
         <v>139</v>
       </c>
       <c r="B143" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C143" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -5008,7 +5018,7 @@
         <v>0</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/jyx2/Assets/Mods/JYX2/Configs/战斗.xlsx
+++ b/jyx2/Assets/Mods/JYX2/Configs/战斗.xlsx
@@ -698,10 +698,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>251,252.253,254</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>255,256,257,258</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -971,6 +967,10 @@
   </si>
   <si>
     <t>莽牯朱蛤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>251,252,253,254</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1313,8 +1313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82:XFD82"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H88" sqref="H88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1372,7 +1372,7 @@
         <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>116</v>
@@ -1389,7 +1389,7 @@
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D4">
         <v>150</v>
@@ -1415,7 +1415,7 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D5">
         <v>200</v>
@@ -1441,7 +1441,7 @@
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D6">
         <v>100</v>
@@ -1467,7 +1467,7 @@
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D7">
         <v>100</v>
@@ -1493,7 +1493,7 @@
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D8">
         <v>500</v>
@@ -1516,10 +1516,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D9">
         <v>500</v>
@@ -1545,7 +1545,7 @@
         <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D10">
         <v>1000</v>
@@ -1571,7 +1571,7 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D11">
         <v>50</v>
@@ -1597,7 +1597,7 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D12">
         <v>300</v>
@@ -1623,7 +1623,7 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D13">
         <v>500</v>
@@ -1649,7 +1649,7 @@
         <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D14">
         <v>400</v>
@@ -1675,7 +1675,7 @@
         <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D15">
         <v>800</v>
@@ -1701,7 +1701,7 @@
         <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D16">
         <v>2300</v>
@@ -1727,7 +1727,7 @@
         <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D17">
         <v>2000</v>
@@ -1753,7 +1753,7 @@
         <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D18">
         <v>400</v>
@@ -1779,7 +1779,7 @@
         <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D19">
         <v>2000</v>
@@ -1805,7 +1805,7 @@
         <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D20">
         <v>400</v>
@@ -1831,7 +1831,7 @@
         <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D21">
         <v>200</v>
@@ -1857,7 +1857,7 @@
         <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D22">
         <v>400</v>
@@ -1883,7 +1883,7 @@
         <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D23">
         <v>400</v>
@@ -1909,7 +1909,7 @@
         <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D24">
         <v>800</v>
@@ -1935,7 +1935,7 @@
         <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D25">
         <v>300</v>
@@ -1961,7 +1961,7 @@
         <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D26">
         <v>3000</v>
@@ -1987,7 +1987,7 @@
         <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D27">
         <v>200</v>
@@ -2013,7 +2013,7 @@
         <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D28">
         <v>500</v>
@@ -2039,7 +2039,7 @@
         <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D29">
         <v>200</v>
@@ -2065,7 +2065,7 @@
         <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D30">
         <v>500</v>
@@ -2091,7 +2091,7 @@
         <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D31">
         <v>200</v>
@@ -2117,7 +2117,7 @@
         <v>47</v>
       </c>
       <c r="C32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D32">
         <v>500</v>
@@ -2143,7 +2143,7 @@
         <v>48</v>
       </c>
       <c r="C33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D33">
         <v>200</v>
@@ -2169,7 +2169,7 @@
         <v>49</v>
       </c>
       <c r="C34" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D34">
         <v>500</v>
@@ -2195,7 +2195,7 @@
         <v>50</v>
       </c>
       <c r="C35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D35">
         <v>500</v>
@@ -2221,7 +2221,7 @@
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D36">
         <v>500</v>
@@ -2247,7 +2247,7 @@
         <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D37">
         <v>800</v>
@@ -2273,7 +2273,7 @@
         <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D38">
         <v>500</v>
@@ -2299,7 +2299,7 @@
         <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D39">
         <v>500</v>
@@ -2325,7 +2325,7 @@
         <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D40">
         <v>500</v>
@@ -2351,7 +2351,7 @@
         <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D41">
         <v>800</v>
@@ -2377,7 +2377,7 @@
         <v>53</v>
       </c>
       <c r="C42" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D42">
         <v>400</v>
@@ -2403,7 +2403,7 @@
         <v>54</v>
       </c>
       <c r="C43" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D43">
         <v>200</v>
@@ -2429,7 +2429,7 @@
         <v>55</v>
       </c>
       <c r="C44" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D44">
         <v>200</v>
@@ -2455,7 +2455,7 @@
         <v>56</v>
       </c>
       <c r="C45" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D45">
         <v>200</v>
@@ -2481,7 +2481,7 @@
         <v>57</v>
       </c>
       <c r="C46" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D46">
         <v>100</v>
@@ -2507,7 +2507,7 @@
         <v>58</v>
       </c>
       <c r="C47" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D47">
         <v>300</v>
@@ -2533,7 +2533,7 @@
         <v>59</v>
       </c>
       <c r="C48" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D48">
         <v>400</v>
@@ -2559,7 +2559,7 @@
         <v>60</v>
       </c>
       <c r="C49" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D49">
         <v>500</v>
@@ -2585,7 +2585,7 @@
         <v>61</v>
       </c>
       <c r="C50" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D50">
         <v>600</v>
@@ -2611,7 +2611,7 @@
         <v>62</v>
       </c>
       <c r="C51" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D51">
         <v>1200</v>
@@ -2637,7 +2637,7 @@
         <v>63</v>
       </c>
       <c r="C52" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D52">
         <v>50</v>
@@ -2663,7 +2663,7 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D53">
         <v>200</v>
@@ -2689,7 +2689,7 @@
         <v>64</v>
       </c>
       <c r="C54" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D54">
         <v>500</v>
@@ -2715,7 +2715,7 @@
         <v>65</v>
       </c>
       <c r="C55" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D55">
         <v>500</v>
@@ -2741,7 +2741,7 @@
         <v>66</v>
       </c>
       <c r="C56" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D56">
         <v>50</v>
@@ -2767,7 +2767,7 @@
         <v>67</v>
       </c>
       <c r="C57" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D57">
         <v>450</v>
@@ -2793,7 +2793,7 @@
         <v>68</v>
       </c>
       <c r="C58" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D58">
         <v>5000</v>
@@ -2819,7 +2819,7 @@
         <v>69</v>
       </c>
       <c r="C59" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D59">
         <v>2000</v>
@@ -2845,7 +2845,7 @@
         <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D60">
         <v>2500</v>
@@ -2871,7 +2871,7 @@
         <v>70</v>
       </c>
       <c r="C61" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D61">
         <v>5000</v>
@@ -2880,7 +2880,7 @@
         <v>7</v>
       </c>
       <c r="F61" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G61">
         <v>-1</v>
@@ -2897,7 +2897,7 @@
         <v>13</v>
       </c>
       <c r="C62" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D62">
         <v>100</v>
@@ -2923,7 +2923,7 @@
         <v>71</v>
       </c>
       <c r="C63" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D63">
         <v>200</v>
@@ -2949,7 +2949,7 @@
         <v>72</v>
       </c>
       <c r="C64" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D64">
         <v>300</v>
@@ -2975,7 +2975,7 @@
         <v>14</v>
       </c>
       <c r="C65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D65">
         <v>280</v>
@@ -3001,7 +3001,7 @@
         <v>15</v>
       </c>
       <c r="C66" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D66">
         <v>280</v>
@@ -3027,7 +3027,7 @@
         <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D67">
         <v>630</v>
@@ -3053,7 +3053,7 @@
         <v>17</v>
       </c>
       <c r="C68" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D68">
         <v>280</v>
@@ -3079,7 +3079,7 @@
         <v>18</v>
       </c>
       <c r="C69" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D69">
         <v>280</v>
@@ -3105,7 +3105,7 @@
         <v>19</v>
       </c>
       <c r="C70" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D70">
         <v>950</v>
@@ -3131,7 +3131,7 @@
         <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D71">
         <v>1500</v>
@@ -3157,7 +3157,7 @@
         <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D72">
         <v>1500</v>
@@ -3183,7 +3183,7 @@
         <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D73">
         <v>300</v>
@@ -3209,7 +3209,7 @@
         <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D74">
         <v>300</v>
@@ -3235,7 +3235,7 @@
         <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D75">
         <v>1600</v>
@@ -3261,7 +3261,7 @@
         <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D76">
         <v>900</v>
@@ -3287,7 +3287,7 @@
         <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D77">
         <v>330</v>
@@ -3313,7 +3313,7 @@
         <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D78">
         <v>1650</v>
@@ -3339,7 +3339,7 @@
         <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D79">
         <v>850</v>
@@ -3365,7 +3365,7 @@
         <v>82</v>
       </c>
       <c r="C80" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D80">
         <v>1500</v>
@@ -3391,7 +3391,7 @@
         <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D81">
         <v>2300</v>
@@ -3414,10 +3414,10 @@
         <v>78</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C82" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D82">
         <v>600</v>
@@ -3443,7 +3443,7 @@
         <v>84</v>
       </c>
       <c r="C83" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D83">
         <v>400</v>
@@ -3469,7 +3469,7 @@
         <v>20</v>
       </c>
       <c r="C84" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D84">
         <v>600</v>
@@ -3495,7 +3495,7 @@
         <v>85</v>
       </c>
       <c r="C85" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D85">
         <v>1500</v>
@@ -3521,7 +3521,7 @@
         <v>86</v>
       </c>
       <c r="C86" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D86">
         <v>600</v>
@@ -3547,7 +3547,7 @@
         <v>87</v>
       </c>
       <c r="C87" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D87">
         <v>1800</v>
@@ -3573,7 +3573,7 @@
         <v>88</v>
       </c>
       <c r="C88" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D88">
         <v>1000</v>
@@ -3599,7 +3599,7 @@
         <v>89</v>
       </c>
       <c r="C89" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D89">
         <v>500</v>
@@ -3625,7 +3625,7 @@
         <v>90</v>
       </c>
       <c r="C90" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D90">
         <v>1300</v>
@@ -3651,7 +3651,7 @@
         <v>21</v>
       </c>
       <c r="C91" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D91">
         <v>200</v>
@@ -3677,7 +3677,7 @@
         <v>91</v>
       </c>
       <c r="C92" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D92">
         <v>700</v>
@@ -3703,7 +3703,7 @@
         <v>92</v>
       </c>
       <c r="C93" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D93">
         <v>900</v>
@@ -3729,7 +3729,7 @@
         <v>93</v>
       </c>
       <c r="C94" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D94">
         <v>2400</v>
@@ -3755,7 +3755,7 @@
         <v>94</v>
       </c>
       <c r="C95" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D95">
         <v>300</v>
@@ -3770,7 +3770,7 @@
         <v>-1</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>175</v>
+        <v>243</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
@@ -3781,7 +3781,7 @@
         <v>95</v>
       </c>
       <c r="C96" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D96">
         <v>500</v>
@@ -3796,7 +3796,7 @@
         <v>-1</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
@@ -3807,7 +3807,7 @@
         <v>96</v>
       </c>
       <c r="C97" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D97">
         <v>1500</v>
@@ -3822,7 +3822,7 @@
         <v>-1</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
@@ -3833,7 +3833,7 @@
         <v>97</v>
       </c>
       <c r="C98" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D98">
         <v>550</v>
@@ -3848,7 +3848,7 @@
         <v>-1</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
@@ -3859,7 +3859,7 @@
         <v>98</v>
       </c>
       <c r="C99" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D99">
         <v>1000</v>
@@ -3874,7 +3874,7 @@
         <v>-1</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
@@ -3885,7 +3885,7 @@
         <v>99</v>
       </c>
       <c r="C100" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D100">
         <v>230</v>
@@ -3900,7 +3900,7 @@
         <v>-1</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
@@ -3911,7 +3911,7 @@
         <v>100</v>
       </c>
       <c r="C101" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D101">
         <v>350</v>
@@ -3926,7 +3926,7 @@
         <v>-1</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
@@ -3937,7 +3937,7 @@
         <v>101</v>
       </c>
       <c r="C102" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D102">
         <v>850</v>
@@ -3952,7 +3952,7 @@
         <v>-1</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
@@ -3963,7 +3963,7 @@
         <v>102</v>
       </c>
       <c r="C103" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D103">
         <v>450</v>
@@ -3978,7 +3978,7 @@
         <v>-1</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
@@ -3989,7 +3989,7 @@
         <v>103</v>
       </c>
       <c r="C104" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D104">
         <v>1250</v>
@@ -4004,7 +4004,7 @@
         <v>-1</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
@@ -4015,7 +4015,7 @@
         <v>104</v>
       </c>
       <c r="C105" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D105">
         <v>600</v>
@@ -4041,7 +4041,7 @@
         <v>105</v>
       </c>
       <c r="C106" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D106">
         <v>500</v>
@@ -4067,7 +4067,7 @@
         <v>105</v>
       </c>
       <c r="C107" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D107">
         <v>600</v>
@@ -4093,7 +4093,7 @@
         <v>105</v>
       </c>
       <c r="C108" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D108">
         <v>700</v>
@@ -4119,7 +4119,7 @@
         <v>105</v>
       </c>
       <c r="C109" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D109">
         <v>800</v>
@@ -4145,7 +4145,7 @@
         <v>105</v>
       </c>
       <c r="C110" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D110">
         <v>900</v>
@@ -4171,7 +4171,7 @@
         <v>105</v>
       </c>
       <c r="C111" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D111">
         <v>1000</v>
@@ -4197,7 +4197,7 @@
         <v>105</v>
       </c>
       <c r="C112" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D112">
         <v>1100</v>
@@ -4223,7 +4223,7 @@
         <v>105</v>
       </c>
       <c r="C113" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D113">
         <v>1200</v>
@@ -4249,7 +4249,7 @@
         <v>105</v>
       </c>
       <c r="C114" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D114">
         <v>1300</v>
@@ -4275,7 +4275,7 @@
         <v>105</v>
       </c>
       <c r="C115" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D115">
         <v>1400</v>
@@ -4301,7 +4301,7 @@
         <v>105</v>
       </c>
       <c r="C116" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D116">
         <v>1500</v>
@@ -4327,7 +4327,7 @@
         <v>105</v>
       </c>
       <c r="C117" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D117">
         <v>1500</v>
@@ -4353,7 +4353,7 @@
         <v>105</v>
       </c>
       <c r="C118" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D118">
         <v>1600</v>
@@ -4379,7 +4379,7 @@
         <v>105</v>
       </c>
       <c r="C119" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D119">
         <v>1700</v>
@@ -4405,7 +4405,7 @@
         <v>105</v>
       </c>
       <c r="C120" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D120">
         <v>1800</v>
@@ -4431,7 +4431,7 @@
         <v>105</v>
       </c>
       <c r="C121" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D121">
         <v>1900</v>
@@ -4457,7 +4457,7 @@
         <v>105</v>
       </c>
       <c r="C122" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D122">
         <v>2000</v>
@@ -4483,7 +4483,7 @@
         <v>105</v>
       </c>
       <c r="C123" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D123">
         <v>2100</v>
@@ -4509,7 +4509,7 @@
         <v>105</v>
       </c>
       <c r="C124" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D124">
         <v>2200</v>
@@ -4535,7 +4535,7 @@
         <v>105</v>
       </c>
       <c r="C125" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D125">
         <v>2300</v>
@@ -4561,7 +4561,7 @@
         <v>105</v>
       </c>
       <c r="C126" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D126">
         <v>2400</v>
@@ -4587,7 +4587,7 @@
         <v>105</v>
       </c>
       <c r="C127" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D127">
         <v>2500</v>
@@ -4613,7 +4613,7 @@
         <v>105</v>
       </c>
       <c r="C128" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D128">
         <v>2600</v>
@@ -4639,7 +4639,7 @@
         <v>105</v>
       </c>
       <c r="C129" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D129">
         <v>2700</v>
@@ -4665,7 +4665,7 @@
         <v>105</v>
       </c>
       <c r="C130" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D130">
         <v>2800</v>
@@ -4691,7 +4691,7 @@
         <v>105</v>
       </c>
       <c r="C131" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D131">
         <v>2900</v>
@@ -4717,7 +4717,7 @@
         <v>105</v>
       </c>
       <c r="C132" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D132">
         <v>3000</v>
@@ -4743,7 +4743,7 @@
         <v>105</v>
       </c>
       <c r="C133" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D133">
         <v>3100</v>
@@ -4769,7 +4769,7 @@
         <v>105</v>
       </c>
       <c r="C134" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D134">
         <v>3200</v>
@@ -4795,7 +4795,7 @@
         <v>105</v>
       </c>
       <c r="C135" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D135">
         <v>3300</v>
@@ -4821,7 +4821,7 @@
         <v>106</v>
       </c>
       <c r="C136" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D136">
         <v>400</v>
@@ -4847,7 +4847,7 @@
         <v>107</v>
       </c>
       <c r="C137" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D137">
         <v>5000</v>
@@ -4862,7 +4862,7 @@
         <v>0</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
@@ -4873,7 +4873,7 @@
         <v>22</v>
       </c>
       <c r="C138" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D138">
         <v>5000</v>
@@ -4888,7 +4888,7 @@
         <v>0</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
@@ -4899,7 +4899,7 @@
         <v>73</v>
       </c>
       <c r="C139" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D139">
         <v>1000</v>
@@ -4925,7 +4925,7 @@
         <v>108</v>
       </c>
       <c r="C140" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -4951,7 +4951,7 @@
         <v>108</v>
       </c>
       <c r="C141" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -4977,7 +4977,7 @@
         <v>108</v>
       </c>
       <c r="C142" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -5003,7 +5003,7 @@
         <v>108</v>
       </c>
       <c r="C143" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -5018,7 +5018,7 @@
         <v>0</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/jyx2/Assets/Mods/JYX2/Configs/战斗.xlsx
+++ b/jyx2/Assets/Mods/JYX2/Configs/战斗.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\Assets\Mods\JYX2\Configs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\jynew\jyx2\Assets\Mods\JYX2\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E12952-3750-47FC-94BE-0B2AB5FEF168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView minimized="1" xWindow="5410" yWindow="1110" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="战斗数据" sheetId="1" r:id="rId1"/>
@@ -610,10 +611,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>19,170,169,164,20,180,175,173,21,190,184,186,22,200,199,198</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>241,242,243</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -971,13 +968,17 @@
   </si>
   <si>
     <t>251,252,253,254</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>19,170,169,164,20,180,175,173,21,190,184,186,22,200,199,198,23,210,209,208</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1310,26 +1311,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H88" sqref="H88"/>
+    <sheetView tabSelected="1" topLeftCell="C73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="24.6328125" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" customWidth="1"/>
     <col min="8" max="8" width="91" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>113</v>
       </c>
@@ -1355,7 +1356,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1372,7 +1373,7 @@
         <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>116</v>
@@ -1381,7 +1382,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1389,7 +1390,7 @@
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D4">
         <v>150</v>
@@ -1407,7 +1408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1415,7 +1416,7 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D5">
         <v>200</v>
@@ -1433,7 +1434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1441,7 +1442,7 @@
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D6">
         <v>100</v>
@@ -1459,7 +1460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1467,7 +1468,7 @@
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D7">
         <v>100</v>
@@ -1485,7 +1486,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1493,7 +1494,7 @@
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D8">
         <v>500</v>
@@ -1511,15 +1512,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D9">
         <v>500</v>
@@ -1537,7 +1538,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -1545,7 +1546,7 @@
         <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D10">
         <v>1000</v>
@@ -1563,7 +1564,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -1571,7 +1572,7 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D11">
         <v>50</v>
@@ -1589,7 +1590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -1597,7 +1598,7 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D12">
         <v>300</v>
@@ -1615,7 +1616,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
@@ -1623,7 +1624,7 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D13">
         <v>500</v>
@@ -1641,7 +1642,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
@@ -1649,7 +1650,7 @@
         <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D14">
         <v>400</v>
@@ -1667,7 +1668,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
@@ -1675,7 +1676,7 @@
         <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D15">
         <v>800</v>
@@ -1693,7 +1694,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
@@ -1701,7 +1702,7 @@
         <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D16">
         <v>2300</v>
@@ -1719,7 +1720,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>13</v>
       </c>
@@ -1727,7 +1728,7 @@
         <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D17">
         <v>2000</v>
@@ -1745,7 +1746,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>14</v>
       </c>
@@ -1753,7 +1754,7 @@
         <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D18">
         <v>400</v>
@@ -1771,7 +1772,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>15</v>
       </c>
@@ -1779,7 +1780,7 @@
         <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D19">
         <v>2000</v>
@@ -1797,7 +1798,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>16</v>
       </c>
@@ -1805,7 +1806,7 @@
         <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D20">
         <v>400</v>
@@ -1823,7 +1824,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>17</v>
       </c>
@@ -1831,7 +1832,7 @@
         <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D21">
         <v>200</v>
@@ -1849,7 +1850,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>18</v>
       </c>
@@ -1857,7 +1858,7 @@
         <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D22">
         <v>400</v>
@@ -1875,7 +1876,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>19</v>
       </c>
@@ -1883,7 +1884,7 @@
         <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D23">
         <v>400</v>
@@ -1901,7 +1902,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20</v>
       </c>
@@ -1909,7 +1910,7 @@
         <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D24">
         <v>800</v>
@@ -1927,7 +1928,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>21</v>
       </c>
@@ -1935,7 +1936,7 @@
         <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D25">
         <v>300</v>
@@ -1953,7 +1954,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>22</v>
       </c>
@@ -1961,7 +1962,7 @@
         <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D26">
         <v>3000</v>
@@ -1979,7 +1980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>23</v>
       </c>
@@ -1987,7 +1988,7 @@
         <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D27">
         <v>200</v>
@@ -2005,7 +2006,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>24</v>
       </c>
@@ -2013,7 +2014,7 @@
         <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D28">
         <v>500</v>
@@ -2031,7 +2032,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>25</v>
       </c>
@@ -2039,7 +2040,7 @@
         <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D29">
         <v>200</v>
@@ -2057,7 +2058,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>26</v>
       </c>
@@ -2065,7 +2066,7 @@
         <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D30">
         <v>500</v>
@@ -2083,7 +2084,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>27</v>
       </c>
@@ -2091,7 +2092,7 @@
         <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D31">
         <v>200</v>
@@ -2109,7 +2110,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>28</v>
       </c>
@@ -2117,7 +2118,7 @@
         <v>47</v>
       </c>
       <c r="C32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D32">
         <v>500</v>
@@ -2135,7 +2136,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>29</v>
       </c>
@@ -2143,7 +2144,7 @@
         <v>48</v>
       </c>
       <c r="C33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D33">
         <v>200</v>
@@ -2161,7 +2162,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>30</v>
       </c>
@@ -2169,7 +2170,7 @@
         <v>49</v>
       </c>
       <c r="C34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D34">
         <v>500</v>
@@ -2187,7 +2188,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>31</v>
       </c>
@@ -2195,7 +2196,7 @@
         <v>50</v>
       </c>
       <c r="C35" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D35">
         <v>500</v>
@@ -2213,7 +2214,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>32</v>
       </c>
@@ -2221,7 +2222,7 @@
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D36">
         <v>500</v>
@@ -2239,7 +2240,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>33</v>
       </c>
@@ -2247,7 +2248,7 @@
         <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D37">
         <v>800</v>
@@ -2265,7 +2266,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>34</v>
       </c>
@@ -2273,7 +2274,7 @@
         <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D38">
         <v>500</v>
@@ -2291,7 +2292,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>35</v>
       </c>
@@ -2299,7 +2300,7 @@
         <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D39">
         <v>500</v>
@@ -2317,7 +2318,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>36</v>
       </c>
@@ -2325,7 +2326,7 @@
         <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D40">
         <v>500</v>
@@ -2343,7 +2344,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>37</v>
       </c>
@@ -2351,7 +2352,7 @@
         <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D41">
         <v>800</v>
@@ -2369,7 +2370,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>38</v>
       </c>
@@ -2377,7 +2378,7 @@
         <v>53</v>
       </c>
       <c r="C42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D42">
         <v>400</v>
@@ -2395,7 +2396,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>39</v>
       </c>
@@ -2403,7 +2404,7 @@
         <v>54</v>
       </c>
       <c r="C43" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D43">
         <v>200</v>
@@ -2421,7 +2422,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>40</v>
       </c>
@@ -2429,7 +2430,7 @@
         <v>55</v>
       </c>
       <c r="C44" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D44">
         <v>200</v>
@@ -2447,7 +2448,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>41</v>
       </c>
@@ -2455,7 +2456,7 @@
         <v>56</v>
       </c>
       <c r="C45" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D45">
         <v>200</v>
@@ -2473,7 +2474,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>42</v>
       </c>
@@ -2481,7 +2482,7 @@
         <v>57</v>
       </c>
       <c r="C46" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D46">
         <v>100</v>
@@ -2499,7 +2500,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>43</v>
       </c>
@@ -2507,7 +2508,7 @@
         <v>58</v>
       </c>
       <c r="C47" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D47">
         <v>300</v>
@@ -2525,7 +2526,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>44</v>
       </c>
@@ -2533,7 +2534,7 @@
         <v>59</v>
       </c>
       <c r="C48" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D48">
         <v>400</v>
@@ -2551,7 +2552,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>45</v>
       </c>
@@ -2559,7 +2560,7 @@
         <v>60</v>
       </c>
       <c r="C49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D49">
         <v>500</v>
@@ -2577,7 +2578,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>46</v>
       </c>
@@ -2585,7 +2586,7 @@
         <v>61</v>
       </c>
       <c r="C50" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D50">
         <v>600</v>
@@ -2603,7 +2604,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>47</v>
       </c>
@@ -2611,7 +2612,7 @@
         <v>62</v>
       </c>
       <c r="C51" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D51">
         <v>1200</v>
@@ -2629,7 +2630,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>48</v>
       </c>
@@ -2637,7 +2638,7 @@
         <v>63</v>
       </c>
       <c r="C52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D52">
         <v>50</v>
@@ -2655,7 +2656,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>49</v>
       </c>
@@ -2663,7 +2664,7 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D53">
         <v>200</v>
@@ -2681,7 +2682,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>50</v>
       </c>
@@ -2689,7 +2690,7 @@
         <v>64</v>
       </c>
       <c r="C54" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D54">
         <v>500</v>
@@ -2707,7 +2708,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>51</v>
       </c>
@@ -2715,7 +2716,7 @@
         <v>65</v>
       </c>
       <c r="C55" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D55">
         <v>500</v>
@@ -2733,7 +2734,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>52</v>
       </c>
@@ -2741,7 +2742,7 @@
         <v>66</v>
       </c>
       <c r="C56" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D56">
         <v>50</v>
@@ -2759,7 +2760,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>53</v>
       </c>
@@ -2767,7 +2768,7 @@
         <v>67</v>
       </c>
       <c r="C57" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D57">
         <v>450</v>
@@ -2785,7 +2786,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>54</v>
       </c>
@@ -2793,7 +2794,7 @@
         <v>68</v>
       </c>
       <c r="C58" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D58">
         <v>5000</v>
@@ -2811,7 +2812,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>55</v>
       </c>
@@ -2819,7 +2820,7 @@
         <v>69</v>
       </c>
       <c r="C59" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D59">
         <v>2000</v>
@@ -2837,7 +2838,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>56</v>
       </c>
@@ -2845,7 +2846,7 @@
         <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D60">
         <v>2500</v>
@@ -2860,10 +2861,10 @@
         <v>-1</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>57</v>
       </c>
@@ -2871,7 +2872,7 @@
         <v>70</v>
       </c>
       <c r="C61" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D61">
         <v>5000</v>
@@ -2880,7 +2881,7 @@
         <v>7</v>
       </c>
       <c r="F61" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G61">
         <v>-1</v>
@@ -2889,7 +2890,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>58</v>
       </c>
@@ -2897,7 +2898,7 @@
         <v>13</v>
       </c>
       <c r="C62" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D62">
         <v>100</v>
@@ -2912,10 +2913,10 @@
         <v>-1</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>59</v>
       </c>
@@ -2923,7 +2924,7 @@
         <v>71</v>
       </c>
       <c r="C63" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D63">
         <v>200</v>
@@ -2941,7 +2942,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>60</v>
       </c>
@@ -2949,7 +2950,7 @@
         <v>72</v>
       </c>
       <c r="C64" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D64">
         <v>300</v>
@@ -2964,10 +2965,10 @@
         <v>-1</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>61</v>
       </c>
@@ -2975,7 +2976,7 @@
         <v>14</v>
       </c>
       <c r="C65" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D65">
         <v>280</v>
@@ -2990,10 +2991,10 @@
         <v>-1</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>62</v>
       </c>
@@ -3001,7 +3002,7 @@
         <v>15</v>
       </c>
       <c r="C66" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D66">
         <v>280</v>
@@ -3016,10 +3017,10 @@
         <v>-1</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>63</v>
       </c>
@@ -3027,7 +3028,7 @@
         <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D67">
         <v>630</v>
@@ -3042,10 +3043,10 @@
         <v>-1</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>64</v>
       </c>
@@ -3053,7 +3054,7 @@
         <v>17</v>
       </c>
       <c r="C68" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D68">
         <v>280</v>
@@ -3068,10 +3069,10 @@
         <v>-1</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>65</v>
       </c>
@@ -3079,7 +3080,7 @@
         <v>18</v>
       </c>
       <c r="C69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D69">
         <v>280</v>
@@ -3094,10 +3095,10 @@
         <v>-1</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>66</v>
       </c>
@@ -3105,7 +3106,7 @@
         <v>19</v>
       </c>
       <c r="C70" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D70">
         <v>950</v>
@@ -3123,7 +3124,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>67</v>
       </c>
@@ -3131,7 +3132,7 @@
         <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D71">
         <v>1500</v>
@@ -3149,7 +3150,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>68</v>
       </c>
@@ -3157,7 +3158,7 @@
         <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D72">
         <v>1500</v>
@@ -3175,7 +3176,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>69</v>
       </c>
@@ -3183,7 +3184,7 @@
         <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D73">
         <v>300</v>
@@ -3201,7 +3202,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>70</v>
       </c>
@@ -3209,7 +3210,7 @@
         <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D74">
         <v>300</v>
@@ -3224,10 +3225,10 @@
         <v>-1</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>71</v>
       </c>
@@ -3235,7 +3236,7 @@
         <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D75">
         <v>1600</v>
@@ -3250,10 +3251,10 @@
         <v>-1</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>72</v>
       </c>
@@ -3261,7 +3262,7 @@
         <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D76">
         <v>900</v>
@@ -3276,10 +3277,10 @@
         <v>-1</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>73</v>
       </c>
@@ -3287,7 +3288,7 @@
         <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D77">
         <v>330</v>
@@ -3302,10 +3303,10 @@
         <v>-1</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>74</v>
       </c>
@@ -3313,7 +3314,7 @@
         <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D78">
         <v>1650</v>
@@ -3328,10 +3329,10 @@
         <v>-1</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>75</v>
       </c>
@@ -3339,7 +3340,7 @@
         <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D79">
         <v>850</v>
@@ -3354,10 +3355,10 @@
         <v>-1</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>76</v>
       </c>
@@ -3365,7 +3366,7 @@
         <v>82</v>
       </c>
       <c r="C80" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D80">
         <v>1500</v>
@@ -3383,7 +3384,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>77</v>
       </c>
@@ -3391,7 +3392,7 @@
         <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D81">
         <v>2300</v>
@@ -3406,18 +3407,18 @@
         <v>-1</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>78</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C82" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D82">
         <v>600</v>
@@ -3435,7 +3436,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>79</v>
       </c>
@@ -3443,7 +3444,7 @@
         <v>84</v>
       </c>
       <c r="C83" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D83">
         <v>400</v>
@@ -3458,10 +3459,10 @@
         <v>-1</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>80</v>
       </c>
@@ -3469,7 +3470,7 @@
         <v>20</v>
       </c>
       <c r="C84" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D84">
         <v>600</v>
@@ -3484,10 +3485,10 @@
         <v>-1</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>81</v>
       </c>
@@ -3495,7 +3496,7 @@
         <v>85</v>
       </c>
       <c r="C85" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D85">
         <v>1500</v>
@@ -3510,10 +3511,10 @@
         <v>-1</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>82</v>
       </c>
@@ -3521,7 +3522,7 @@
         <v>86</v>
       </c>
       <c r="C86" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D86">
         <v>600</v>
@@ -3536,10 +3537,10 @@
         <v>-1</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>83</v>
       </c>
@@ -3547,7 +3548,7 @@
         <v>87</v>
       </c>
       <c r="C87" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D87">
         <v>1800</v>
@@ -3565,7 +3566,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>84</v>
       </c>
@@ -3573,7 +3574,7 @@
         <v>88</v>
       </c>
       <c r="C88" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D88">
         <v>1000</v>
@@ -3588,10 +3589,10 @@
         <v>-1</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>85</v>
       </c>
@@ -3599,7 +3600,7 @@
         <v>89</v>
       </c>
       <c r="C89" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D89">
         <v>500</v>
@@ -3617,7 +3618,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>86</v>
       </c>
@@ -3625,7 +3626,7 @@
         <v>90</v>
       </c>
       <c r="C90" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D90">
         <v>1300</v>
@@ -3640,10 +3641,10 @@
         <v>-1</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>87</v>
       </c>
@@ -3651,7 +3652,7 @@
         <v>21</v>
       </c>
       <c r="C91" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D91">
         <v>200</v>
@@ -3666,10 +3667,10 @@
         <v>-1</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>88</v>
       </c>
@@ -3677,7 +3678,7 @@
         <v>91</v>
       </c>
       <c r="C92" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D92">
         <v>700</v>
@@ -3695,7 +3696,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>89</v>
       </c>
@@ -3703,7 +3704,7 @@
         <v>92</v>
       </c>
       <c r="C93" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D93">
         <v>900</v>
@@ -3718,10 +3719,10 @@
         <v>-1</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>90</v>
       </c>
@@ -3729,7 +3730,7 @@
         <v>93</v>
       </c>
       <c r="C94" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D94">
         <v>2400</v>
@@ -3744,10 +3745,10 @@
         <v>-1</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>91</v>
       </c>
@@ -3755,7 +3756,7 @@
         <v>94</v>
       </c>
       <c r="C95" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D95">
         <v>300</v>
@@ -3770,10 +3771,10 @@
         <v>-1</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>92</v>
       </c>
@@ -3781,7 +3782,7 @@
         <v>95</v>
       </c>
       <c r="C96" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D96">
         <v>500</v>
@@ -3796,10 +3797,10 @@
         <v>-1</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>93</v>
       </c>
@@ -3807,7 +3808,7 @@
         <v>96</v>
       </c>
       <c r="C97" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D97">
         <v>1500</v>
@@ -3822,10 +3823,10 @@
         <v>-1</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>94</v>
       </c>
@@ -3833,7 +3834,7 @@
         <v>97</v>
       </c>
       <c r="C98" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D98">
         <v>550</v>
@@ -3848,10 +3849,10 @@
         <v>-1</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>95</v>
       </c>
@@ -3859,7 +3860,7 @@
         <v>98</v>
       </c>
       <c r="C99" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D99">
         <v>1000</v>
@@ -3874,10 +3875,10 @@
         <v>-1</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>96</v>
       </c>
@@ -3885,7 +3886,7 @@
         <v>99</v>
       </c>
       <c r="C100" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D100">
         <v>230</v>
@@ -3900,10 +3901,10 @@
         <v>-1</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>97</v>
       </c>
@@ -3911,7 +3912,7 @@
         <v>100</v>
       </c>
       <c r="C101" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D101">
         <v>350</v>
@@ -3926,10 +3927,10 @@
         <v>-1</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>98</v>
       </c>
@@ -3937,7 +3938,7 @@
         <v>101</v>
       </c>
       <c r="C102" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D102">
         <v>850</v>
@@ -3952,10 +3953,10 @@
         <v>-1</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>99</v>
       </c>
@@ -3963,7 +3964,7 @@
         <v>102</v>
       </c>
       <c r="C103" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D103">
         <v>450</v>
@@ -3978,10 +3979,10 @@
         <v>-1</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>100</v>
       </c>
@@ -3989,7 +3990,7 @@
         <v>103</v>
       </c>
       <c r="C104" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D104">
         <v>1250</v>
@@ -4004,10 +4005,10 @@
         <v>-1</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>101</v>
       </c>
@@ -4015,7 +4016,7 @@
         <v>104</v>
       </c>
       <c r="C105" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D105">
         <v>600</v>
@@ -4033,7 +4034,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>102</v>
       </c>
@@ -4041,7 +4042,7 @@
         <v>105</v>
       </c>
       <c r="C106" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D106">
         <v>500</v>
@@ -4059,7 +4060,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>103</v>
       </c>
@@ -4067,7 +4068,7 @@
         <v>105</v>
       </c>
       <c r="C107" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D107">
         <v>600</v>
@@ -4085,7 +4086,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>104</v>
       </c>
@@ -4093,7 +4094,7 @@
         <v>105</v>
       </c>
       <c r="C108" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D108">
         <v>700</v>
@@ -4111,7 +4112,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>105</v>
       </c>
@@ -4119,7 +4120,7 @@
         <v>105</v>
       </c>
       <c r="C109" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D109">
         <v>800</v>
@@ -4137,7 +4138,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>106</v>
       </c>
@@ -4145,7 +4146,7 @@
         <v>105</v>
       </c>
       <c r="C110" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D110">
         <v>900</v>
@@ -4163,7 +4164,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>107</v>
       </c>
@@ -4171,7 +4172,7 @@
         <v>105</v>
       </c>
       <c r="C111" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D111">
         <v>1000</v>
@@ -4189,7 +4190,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>108</v>
       </c>
@@ -4197,7 +4198,7 @@
         <v>105</v>
       </c>
       <c r="C112" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D112">
         <v>1100</v>
@@ -4215,7 +4216,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>109</v>
       </c>
@@ -4223,7 +4224,7 @@
         <v>105</v>
       </c>
       <c r="C113" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D113">
         <v>1200</v>
@@ -4241,7 +4242,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>110</v>
       </c>
@@ -4249,7 +4250,7 @@
         <v>105</v>
       </c>
       <c r="C114" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D114">
         <v>1300</v>
@@ -4267,7 +4268,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>111</v>
       </c>
@@ -4275,7 +4276,7 @@
         <v>105</v>
       </c>
       <c r="C115" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D115">
         <v>1400</v>
@@ -4293,7 +4294,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>112</v>
       </c>
@@ -4301,7 +4302,7 @@
         <v>105</v>
       </c>
       <c r="C116" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D116">
         <v>1500</v>
@@ -4319,7 +4320,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>113</v>
       </c>
@@ -4327,7 +4328,7 @@
         <v>105</v>
       </c>
       <c r="C117" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D117">
         <v>1500</v>
@@ -4345,7 +4346,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>114</v>
       </c>
@@ -4353,7 +4354,7 @@
         <v>105</v>
       </c>
       <c r="C118" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D118">
         <v>1600</v>
@@ -4371,7 +4372,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>115</v>
       </c>
@@ -4379,7 +4380,7 @@
         <v>105</v>
       </c>
       <c r="C119" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D119">
         <v>1700</v>
@@ -4397,7 +4398,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>116</v>
       </c>
@@ -4405,7 +4406,7 @@
         <v>105</v>
       </c>
       <c r="C120" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D120">
         <v>1800</v>
@@ -4423,7 +4424,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>117</v>
       </c>
@@ -4431,7 +4432,7 @@
         <v>105</v>
       </c>
       <c r="C121" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D121">
         <v>1900</v>
@@ -4449,7 +4450,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>118</v>
       </c>
@@ -4457,7 +4458,7 @@
         <v>105</v>
       </c>
       <c r="C122" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D122">
         <v>2000</v>
@@ -4475,7 +4476,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>119</v>
       </c>
@@ -4483,7 +4484,7 @@
         <v>105</v>
       </c>
       <c r="C123" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D123">
         <v>2100</v>
@@ -4501,7 +4502,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>120</v>
       </c>
@@ -4509,7 +4510,7 @@
         <v>105</v>
       </c>
       <c r="C124" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D124">
         <v>2200</v>
@@ -4527,7 +4528,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>121</v>
       </c>
@@ -4535,7 +4536,7 @@
         <v>105</v>
       </c>
       <c r="C125" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D125">
         <v>2300</v>
@@ -4553,7 +4554,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>122</v>
       </c>
@@ -4561,7 +4562,7 @@
         <v>105</v>
       </c>
       <c r="C126" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D126">
         <v>2400</v>
@@ -4579,7 +4580,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>123</v>
       </c>
@@ -4587,7 +4588,7 @@
         <v>105</v>
       </c>
       <c r="C127" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D127">
         <v>2500</v>
@@ -4605,7 +4606,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>124</v>
       </c>
@@ -4613,7 +4614,7 @@
         <v>105</v>
       </c>
       <c r="C128" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D128">
         <v>2600</v>
@@ -4631,7 +4632,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>125</v>
       </c>
@@ -4639,7 +4640,7 @@
         <v>105</v>
       </c>
       <c r="C129" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D129">
         <v>2700</v>
@@ -4657,7 +4658,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>126</v>
       </c>
@@ -4665,7 +4666,7 @@
         <v>105</v>
       </c>
       <c r="C130" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D130">
         <v>2800</v>
@@ -4683,7 +4684,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>127</v>
       </c>
@@ -4691,7 +4692,7 @@
         <v>105</v>
       </c>
       <c r="C131" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D131">
         <v>2900</v>
@@ -4709,7 +4710,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>128</v>
       </c>
@@ -4717,7 +4718,7 @@
         <v>105</v>
       </c>
       <c r="C132" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D132">
         <v>3000</v>
@@ -4735,7 +4736,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>129</v>
       </c>
@@ -4743,7 +4744,7 @@
         <v>105</v>
       </c>
       <c r="C133" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D133">
         <v>3100</v>
@@ -4761,7 +4762,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>130</v>
       </c>
@@ -4769,7 +4770,7 @@
         <v>105</v>
       </c>
       <c r="C134" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D134">
         <v>3200</v>
@@ -4787,7 +4788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>131</v>
       </c>
@@ -4795,7 +4796,7 @@
         <v>105</v>
       </c>
       <c r="C135" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D135">
         <v>3300</v>
@@ -4813,7 +4814,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>132</v>
       </c>
@@ -4821,7 +4822,7 @@
         <v>106</v>
       </c>
       <c r="C136" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D136">
         <v>400</v>
@@ -4839,7 +4840,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>133</v>
       </c>
@@ -4847,7 +4848,7 @@
         <v>107</v>
       </c>
       <c r="C137" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D137">
         <v>5000</v>
@@ -4862,10 +4863,10 @@
         <v>0</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>134</v>
       </c>
@@ -4873,7 +4874,7 @@
         <v>22</v>
       </c>
       <c r="C138" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D138">
         <v>5000</v>
@@ -4888,10 +4889,10 @@
         <v>0</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>135</v>
       </c>
@@ -4899,7 +4900,7 @@
         <v>73</v>
       </c>
       <c r="C139" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D139">
         <v>1000</v>
@@ -4917,7 +4918,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>136</v>
       </c>
@@ -4925,7 +4926,7 @@
         <v>108</v>
       </c>
       <c r="C140" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -4943,7 +4944,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>137</v>
       </c>
@@ -4951,7 +4952,7 @@
         <v>108</v>
       </c>
       <c r="C141" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -4969,7 +4970,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>138</v>
       </c>
@@ -4977,7 +4978,7 @@
         <v>108</v>
       </c>
       <c r="C142" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -4995,7 +4996,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>139</v>
       </c>
@@ -5003,7 +5004,7 @@
         <v>108</v>
       </c>
       <c r="C143" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -5018,7 +5019,7 @@
         <v>0</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/jyx2/Assets/Mods/JYX2/Configs/战斗.xlsx
+++ b/jyx2/Assets/Mods/JYX2/Configs/战斗.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\jynew\jyx2\Assets\Mods\JYX2\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E12952-3750-47FC-94BE-0B2AB5FEF168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571DA942-2E13-4268-B860-D51077B86243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5410" yWindow="1110" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3250" yWindow="1550" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="战斗数据" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="243">
   <si>
     <t>编号</t>
   </si>
@@ -936,10 +936,6 @@
   </si>
   <si>
     <t>Jyx2Battle_22</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jyx2Battle_7</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1314,8 +1310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1517,7 +1513,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C9" t="s">
         <v>201</v>
@@ -2508,7 +2504,7 @@
         <v>58</v>
       </c>
       <c r="C47" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D47">
         <v>300</v>
@@ -2534,7 +2530,7 @@
         <v>59</v>
       </c>
       <c r="C48" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D48">
         <v>400</v>
@@ -2560,7 +2556,7 @@
         <v>60</v>
       </c>
       <c r="C49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D49">
         <v>500</v>
@@ -2586,7 +2582,7 @@
         <v>61</v>
       </c>
       <c r="C50" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D50">
         <v>600</v>
@@ -2861,7 +2857,7 @@
         <v>-1</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -3415,7 +3411,7 @@
         <v>78</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C82" t="s">
         <v>217</v>
@@ -3771,7 +3767,7 @@
         <v>-1</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -4863,7 +4859,7 @@
         <v>0</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">

--- a/jyx2/Assets/Mods/JYX2/Configs/战斗.xlsx
+++ b/jyx2/Assets/Mods/JYX2/Configs/战斗.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\jynew\jyx2\Assets\Mods\jytest\Configs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\jynew\jyx2\Assets\Mods\JYX2\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965F3FB3-8E9F-447D-9714-125067DC5E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FB77AB-43B6-4380-B0EC-9DDDB68572DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="2660" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3660" yWindow="1870" windowWidth="19140" windowHeight="13090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="战斗数据" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="247">
   <si>
     <t>编号</t>
   </si>
@@ -567,10 +567,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>23,202,203,209,210,206,207,208</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>20,171,172,179,174,175,176,177</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -623,26 +619,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>121,122,123,124,125</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>121,122,123,124,125,126,127,128,129</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>281,282,289,284</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>67,281,282,289,284,285,286</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>67,281,282,289,284,285,286,287,288,289,290</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>291,292,293,294,295,296</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -731,10 +711,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>78,78,121,122</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>队友</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -984,6 +960,30 @@
   </si>
   <si>
     <t>L_string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>23,201,202,203,209,210,206,207,208</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>281,282,283,284</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>67,281,282,283,284,285,286</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>67,281,282,283,284,285,286,287,288,289,290</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>69</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1327,7 +1327,7 @@
   <dimension ref="A1:H144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1339,10 +1339,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="13" x14ac:dyDescent="0.25">
@@ -1362,7 +1362,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>115</v>
@@ -1373,28 +1373,28 @@
     </row>
     <row r="3" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1431,7 +1431,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D5">
         <v>150</v>
@@ -1457,7 +1457,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D6">
         <v>200</v>
@@ -1483,7 +1483,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D7">
         <v>100</v>
@@ -1491,8 +1491,8 @@
       <c r="E7">
         <v>5</v>
       </c>
-      <c r="F7">
-        <v>0</v>
+      <c r="F7" t="s">
+        <v>246</v>
       </c>
       <c r="G7">
         <v>-1</v>
@@ -1509,7 +1509,7 @@
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D8">
         <v>100</v>
@@ -1535,7 +1535,7 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D9">
         <v>500</v>
@@ -1558,10 +1558,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C10" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D10">
         <v>500</v>
@@ -1587,7 +1587,7 @@
         <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D11">
         <v>1000</v>
@@ -1613,7 +1613,7 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D12">
         <v>50</v>
@@ -1639,7 +1639,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D13">
         <v>300</v>
@@ -1665,7 +1665,7 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D14">
         <v>500</v>
@@ -1691,7 +1691,7 @@
         <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D15">
         <v>400</v>
@@ -1717,7 +1717,7 @@
         <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D16">
         <v>800</v>
@@ -1743,7 +1743,7 @@
         <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D17">
         <v>2300</v>
@@ -1769,7 +1769,7 @@
         <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D18">
         <v>2000</v>
@@ -1795,7 +1795,7 @@
         <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D19">
         <v>400</v>
@@ -1821,7 +1821,7 @@
         <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D20">
         <v>2000</v>
@@ -1847,7 +1847,7 @@
         <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D21">
         <v>400</v>
@@ -1873,7 +1873,7 @@
         <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D22">
         <v>200</v>
@@ -1899,7 +1899,7 @@
         <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D23">
         <v>400</v>
@@ -1925,7 +1925,7 @@
         <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D24">
         <v>400</v>
@@ -1951,7 +1951,7 @@
         <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D25">
         <v>800</v>
@@ -1977,7 +1977,7 @@
         <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D26">
         <v>300</v>
@@ -2003,7 +2003,7 @@
         <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D27">
         <v>3000</v>
@@ -2029,7 +2029,7 @@
         <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D28">
         <v>200</v>
@@ -2055,7 +2055,7 @@
         <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D29">
         <v>500</v>
@@ -2081,7 +2081,7 @@
         <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D30">
         <v>200</v>
@@ -2107,7 +2107,7 @@
         <v>45</v>
       </c>
       <c r="C31" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D31">
         <v>500</v>
@@ -2133,7 +2133,7 @@
         <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D32">
         <v>200</v>
@@ -2159,7 +2159,7 @@
         <v>47</v>
       </c>
       <c r="C33" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D33">
         <v>500</v>
@@ -2185,7 +2185,7 @@
         <v>48</v>
       </c>
       <c r="C34" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D34">
         <v>200</v>
@@ -2211,7 +2211,7 @@
         <v>49</v>
       </c>
       <c r="C35" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D35">
         <v>500</v>
@@ -2237,7 +2237,7 @@
         <v>50</v>
       </c>
       <c r="C36" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D36">
         <v>500</v>
@@ -2263,7 +2263,7 @@
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D37">
         <v>500</v>
@@ -2289,7 +2289,7 @@
         <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D38">
         <v>800</v>
@@ -2315,7 +2315,7 @@
         <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D39">
         <v>500</v>
@@ -2341,7 +2341,7 @@
         <v>52</v>
       </c>
       <c r="C40" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D40">
         <v>500</v>
@@ -2367,7 +2367,7 @@
         <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D41">
         <v>500</v>
@@ -2393,7 +2393,7 @@
         <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D42">
         <v>800</v>
@@ -2419,7 +2419,7 @@
         <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D43">
         <v>400</v>
@@ -2445,7 +2445,7 @@
         <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D44">
         <v>200</v>
@@ -2471,7 +2471,7 @@
         <v>55</v>
       </c>
       <c r="C45" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D45">
         <v>200</v>
@@ -2486,7 +2486,7 @@
         <v>-1</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>142</v>
+        <v>241</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -2497,7 +2497,7 @@
         <v>56</v>
       </c>
       <c r="C46" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D46">
         <v>200</v>
@@ -2512,7 +2512,7 @@
         <v>-1</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -2523,7 +2523,7 @@
         <v>57</v>
       </c>
       <c r="C47" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D47">
         <v>100</v>
@@ -2538,7 +2538,7 @@
         <v>-1</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -2549,7 +2549,7 @@
         <v>58</v>
       </c>
       <c r="C48" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D48">
         <v>300</v>
@@ -2575,7 +2575,7 @@
         <v>59</v>
       </c>
       <c r="C49" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D49">
         <v>400</v>
@@ -2601,7 +2601,7 @@
         <v>60</v>
       </c>
       <c r="C50" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D50">
         <v>500</v>
@@ -2627,7 +2627,7 @@
         <v>61</v>
       </c>
       <c r="C51" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D51">
         <v>600</v>
@@ -2653,7 +2653,7 @@
         <v>62</v>
       </c>
       <c r="C52" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D52">
         <v>1200</v>
@@ -2668,7 +2668,7 @@
         <v>-1</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2679,7 +2679,7 @@
         <v>63</v>
       </c>
       <c r="C53" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D53">
         <v>50</v>
@@ -2705,7 +2705,7 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D54">
         <v>200</v>
@@ -2720,7 +2720,7 @@
         <v>-1</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -2731,7 +2731,7 @@
         <v>64</v>
       </c>
       <c r="C55" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D55">
         <v>500</v>
@@ -2746,7 +2746,7 @@
         <v>-1</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -2757,7 +2757,7 @@
         <v>65</v>
       </c>
       <c r="C56" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D56">
         <v>500</v>
@@ -2772,7 +2772,7 @@
         <v>36</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -2783,7 +2783,7 @@
         <v>66</v>
       </c>
       <c r="C57" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D57">
         <v>50</v>
@@ -2809,7 +2809,7 @@
         <v>67</v>
       </c>
       <c r="C58" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D58">
         <v>450</v>
@@ -2835,7 +2835,7 @@
         <v>68</v>
       </c>
       <c r="C59" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D59">
         <v>5000</v>
@@ -2850,7 +2850,7 @@
         <v>-1</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -2861,7 +2861,7 @@
         <v>69</v>
       </c>
       <c r="C60" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D60">
         <v>2000</v>
@@ -2876,7 +2876,7 @@
         <v>-1</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -2887,7 +2887,7 @@
         <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D61">
         <v>2500</v>
@@ -2902,7 +2902,7 @@
         <v>-1</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -2913,7 +2913,7 @@
         <v>70</v>
       </c>
       <c r="C62" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D62">
         <v>5000</v>
@@ -2922,13 +2922,13 @@
         <v>7</v>
       </c>
       <c r="F62" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G62">
         <v>-1</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -2939,7 +2939,7 @@
         <v>13</v>
       </c>
       <c r="C63" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D63">
         <v>100</v>
@@ -2954,7 +2954,7 @@
         <v>-1</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -2965,7 +2965,7 @@
         <v>71</v>
       </c>
       <c r="C64" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D64">
         <v>200</v>
@@ -2991,7 +2991,7 @@
         <v>72</v>
       </c>
       <c r="C65" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D65">
         <v>300</v>
@@ -3006,7 +3006,7 @@
         <v>-1</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -3017,7 +3017,7 @@
         <v>14</v>
       </c>
       <c r="C66" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D66">
         <v>280</v>
@@ -3032,7 +3032,7 @@
         <v>-1</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -3043,7 +3043,7 @@
         <v>15</v>
       </c>
       <c r="C67" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D67">
         <v>280</v>
@@ -3058,7 +3058,7 @@
         <v>-1</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -3069,7 +3069,7 @@
         <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D68">
         <v>630</v>
@@ -3084,7 +3084,7 @@
         <v>-1</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -3095,7 +3095,7 @@
         <v>17</v>
       </c>
       <c r="C69" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D69">
         <v>280</v>
@@ -3110,7 +3110,7 @@
         <v>-1</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -3121,7 +3121,7 @@
         <v>18</v>
       </c>
       <c r="C70" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D70">
         <v>280</v>
@@ -3136,7 +3136,7 @@
         <v>-1</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -3147,7 +3147,7 @@
         <v>19</v>
       </c>
       <c r="C71" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D71">
         <v>950</v>
@@ -3173,7 +3173,7 @@
         <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D72">
         <v>1500</v>
@@ -3199,7 +3199,7 @@
         <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D73">
         <v>1500</v>
@@ -3225,7 +3225,7 @@
         <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D74">
         <v>300</v>
@@ -3251,7 +3251,7 @@
         <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D75">
         <v>300</v>
@@ -3266,7 +3266,7 @@
         <v>-1</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>158</v>
+        <v>242</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -3277,7 +3277,7 @@
         <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D76">
         <v>1600</v>
@@ -3292,7 +3292,7 @@
         <v>-1</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>159</v>
+        <v>243</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -3303,7 +3303,7 @@
         <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D77">
         <v>900</v>
@@ -3318,7 +3318,7 @@
         <v>-1</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>160</v>
+        <v>244</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -3329,7 +3329,7 @@
         <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D78">
         <v>330</v>
@@ -3344,7 +3344,7 @@
         <v>-1</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -3355,7 +3355,7 @@
         <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D79">
         <v>1650</v>
@@ -3370,7 +3370,7 @@
         <v>-1</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -3381,7 +3381,7 @@
         <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D80">
         <v>850</v>
@@ -3396,7 +3396,7 @@
         <v>-1</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -3407,7 +3407,7 @@
         <v>82</v>
       </c>
       <c r="C81" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D81">
         <v>1500</v>
@@ -3433,7 +3433,7 @@
         <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D82">
         <v>2300</v>
@@ -3448,7 +3448,7 @@
         <v>-1</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="13" x14ac:dyDescent="0.25">
@@ -3456,10 +3456,10 @@
         <v>78</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C83" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D83">
         <v>600</v>
@@ -3485,7 +3485,7 @@
         <v>84</v>
       </c>
       <c r="C84" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D84">
         <v>400</v>
@@ -3500,7 +3500,7 @@
         <v>-1</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -3511,7 +3511,7 @@
         <v>20</v>
       </c>
       <c r="C85" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D85">
         <v>600</v>
@@ -3526,7 +3526,7 @@
         <v>-1</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -3537,7 +3537,7 @@
         <v>85</v>
       </c>
       <c r="C86" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D86">
         <v>1500</v>
@@ -3552,7 +3552,7 @@
         <v>-1</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -3563,7 +3563,7 @@
         <v>86</v>
       </c>
       <c r="C87" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D87">
         <v>600</v>
@@ -3578,7 +3578,7 @@
         <v>-1</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -3589,7 +3589,7 @@
         <v>87</v>
       </c>
       <c r="C88" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D88">
         <v>1800</v>
@@ -3615,7 +3615,7 @@
         <v>88</v>
       </c>
       <c r="C89" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D89">
         <v>1000</v>
@@ -3630,7 +3630,7 @@
         <v>-1</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -3641,7 +3641,7 @@
         <v>89</v>
       </c>
       <c r="C90" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D90">
         <v>500</v>
@@ -3667,7 +3667,7 @@
         <v>90</v>
       </c>
       <c r="C91" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D91">
         <v>1300</v>
@@ -3682,7 +3682,7 @@
         <v>-1</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -3693,7 +3693,7 @@
         <v>21</v>
       </c>
       <c r="C92" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D92">
         <v>200</v>
@@ -3708,7 +3708,7 @@
         <v>-1</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -3719,7 +3719,7 @@
         <v>91</v>
       </c>
       <c r="C93" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D93">
         <v>700</v>
@@ -3745,7 +3745,7 @@
         <v>92</v>
       </c>
       <c r="C94" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D94">
         <v>900</v>
@@ -3760,7 +3760,7 @@
         <v>-1</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -3771,7 +3771,7 @@
         <v>93</v>
       </c>
       <c r="C95" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D95">
         <v>2400</v>
@@ -3786,7 +3786,7 @@
         <v>-1</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -3797,7 +3797,7 @@
         <v>94</v>
       </c>
       <c r="C96" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D96">
         <v>300</v>
@@ -3812,7 +3812,7 @@
         <v>-1</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -3823,7 +3823,7 @@
         <v>95</v>
       </c>
       <c r="C97" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D97">
         <v>500</v>
@@ -3838,7 +3838,7 @@
         <v>-1</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -3849,7 +3849,7 @@
         <v>96</v>
       </c>
       <c r="C98" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D98">
         <v>1500</v>
@@ -3864,7 +3864,7 @@
         <v>-1</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -3875,7 +3875,7 @@
         <v>97</v>
       </c>
       <c r="C99" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D99">
         <v>550</v>
@@ -3890,7 +3890,7 @@
         <v>-1</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -3901,7 +3901,7 @@
         <v>98</v>
       </c>
       <c r="C100" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D100">
         <v>1000</v>
@@ -3916,7 +3916,7 @@
         <v>-1</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -3927,7 +3927,7 @@
         <v>99</v>
       </c>
       <c r="C101" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D101">
         <v>230</v>
@@ -3942,7 +3942,7 @@
         <v>-1</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -3953,7 +3953,7 @@
         <v>100</v>
       </c>
       <c r="C102" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D102">
         <v>350</v>
@@ -3968,7 +3968,7 @@
         <v>-1</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -3979,7 +3979,7 @@
         <v>101</v>
       </c>
       <c r="C103" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D103">
         <v>850</v>
@@ -3994,7 +3994,7 @@
         <v>-1</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -4005,7 +4005,7 @@
         <v>102</v>
       </c>
       <c r="C104" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D104">
         <v>450</v>
@@ -4020,7 +4020,7 @@
         <v>-1</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -4031,7 +4031,7 @@
         <v>103</v>
       </c>
       <c r="C105" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D105">
         <v>1250</v>
@@ -4046,7 +4046,7 @@
         <v>-1</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -4057,7 +4057,7 @@
         <v>104</v>
       </c>
       <c r="C106" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D106">
         <v>600</v>
@@ -4083,7 +4083,7 @@
         <v>105</v>
       </c>
       <c r="C107" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D107">
         <v>500</v>
@@ -4109,7 +4109,7 @@
         <v>105</v>
       </c>
       <c r="C108" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D108">
         <v>600</v>
@@ -4135,7 +4135,7 @@
         <v>105</v>
       </c>
       <c r="C109" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D109">
         <v>700</v>
@@ -4161,7 +4161,7 @@
         <v>105</v>
       </c>
       <c r="C110" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D110">
         <v>800</v>
@@ -4187,7 +4187,7 @@
         <v>105</v>
       </c>
       <c r="C111" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D111">
         <v>900</v>
@@ -4213,7 +4213,7 @@
         <v>105</v>
       </c>
       <c r="C112" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D112">
         <v>1000</v>
@@ -4239,7 +4239,7 @@
         <v>105</v>
       </c>
       <c r="C113" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D113">
         <v>1100</v>
@@ -4265,7 +4265,7 @@
         <v>105</v>
       </c>
       <c r="C114" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D114">
         <v>1200</v>
@@ -4291,7 +4291,7 @@
         <v>105</v>
       </c>
       <c r="C115" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D115">
         <v>1300</v>
@@ -4317,7 +4317,7 @@
         <v>105</v>
       </c>
       <c r="C116" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D116">
         <v>1400</v>
@@ -4343,7 +4343,7 @@
         <v>105</v>
       </c>
       <c r="C117" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D117">
         <v>1500</v>
@@ -4369,7 +4369,7 @@
         <v>105</v>
       </c>
       <c r="C118" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D118">
         <v>1500</v>
@@ -4395,7 +4395,7 @@
         <v>105</v>
       </c>
       <c r="C119" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D119">
         <v>1600</v>
@@ -4421,7 +4421,7 @@
         <v>105</v>
       </c>
       <c r="C120" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D120">
         <v>1700</v>
@@ -4447,7 +4447,7 @@
         <v>105</v>
       </c>
       <c r="C121" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D121">
         <v>1800</v>
@@ -4473,7 +4473,7 @@
         <v>105</v>
       </c>
       <c r="C122" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D122">
         <v>1900</v>
@@ -4499,7 +4499,7 @@
         <v>105</v>
       </c>
       <c r="C123" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D123">
         <v>2000</v>
@@ -4525,7 +4525,7 @@
         <v>105</v>
       </c>
       <c r="C124" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D124">
         <v>2100</v>
@@ -4551,7 +4551,7 @@
         <v>105</v>
       </c>
       <c r="C125" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D125">
         <v>2200</v>
@@ -4577,7 +4577,7 @@
         <v>105</v>
       </c>
       <c r="C126" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D126">
         <v>2300</v>
@@ -4603,7 +4603,7 @@
         <v>105</v>
       </c>
       <c r="C127" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D127">
         <v>2400</v>
@@ -4629,7 +4629,7 @@
         <v>105</v>
       </c>
       <c r="C128" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D128">
         <v>2500</v>
@@ -4655,7 +4655,7 @@
         <v>105</v>
       </c>
       <c r="C129" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D129">
         <v>2600</v>
@@ -4681,7 +4681,7 @@
         <v>105</v>
       </c>
       <c r="C130" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D130">
         <v>2700</v>
@@ -4707,7 +4707,7 @@
         <v>105</v>
       </c>
       <c r="C131" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D131">
         <v>2800</v>
@@ -4733,7 +4733,7 @@
         <v>105</v>
       </c>
       <c r="C132" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D132">
         <v>2900</v>
@@ -4759,7 +4759,7 @@
         <v>105</v>
       </c>
       <c r="C133" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D133">
         <v>3000</v>
@@ -4785,7 +4785,7 @@
         <v>105</v>
       </c>
       <c r="C134" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D134">
         <v>3100</v>
@@ -4811,7 +4811,7 @@
         <v>105</v>
       </c>
       <c r="C135" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D135">
         <v>3200</v>
@@ -4837,7 +4837,7 @@
         <v>105</v>
       </c>
       <c r="C136" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D136">
         <v>3300</v>
@@ -4863,7 +4863,7 @@
         <v>106</v>
       </c>
       <c r="C137" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D137">
         <v>400</v>
@@ -4889,7 +4889,7 @@
         <v>107</v>
       </c>
       <c r="C138" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D138">
         <v>5000</v>
@@ -4904,7 +4904,7 @@
         <v>0</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -4915,7 +4915,7 @@
         <v>22</v>
       </c>
       <c r="C139" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D139">
         <v>5000</v>
@@ -4930,7 +4930,7 @@
         <v>0</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
@@ -4941,7 +4941,7 @@
         <v>73</v>
       </c>
       <c r="C140" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D140">
         <v>1000</v>
@@ -4967,7 +4967,7 @@
         <v>108</v>
       </c>
       <c r="C141" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -4993,7 +4993,7 @@
         <v>108</v>
       </c>
       <c r="C142" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -5019,7 +5019,7 @@
         <v>108</v>
       </c>
       <c r="C143" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -5045,7 +5045,7 @@
         <v>108</v>
       </c>
       <c r="C144" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -5060,7 +5060,7 @@
         <v>0</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>183</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
